--- a/Code/Results/Cases/Case_5_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.547280322004667</v>
+        <v>2.353582509274815</v>
       </c>
       <c r="C2">
-        <v>1.105577719449116</v>
+        <v>0.2513723966816173</v>
       </c>
       <c r="D2">
-        <v>0.01379121546678519</v>
+        <v>0.0008122504509324724</v>
       </c>
       <c r="E2">
-        <v>0.07298028284290581</v>
+        <v>0.02986926513978716</v>
       </c>
       <c r="F2">
-        <v>2.618150160502779</v>
+        <v>2.768151978784289</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.323222449956532</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07110985259495095</v>
+        <v>0.08578038865885063</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5244861292365215</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2064857355533292</v>
       </c>
       <c r="M2">
-        <v>0.8629395522482071</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.04672689169908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.194055904979734</v>
+        <v>2.064971182888314</v>
       </c>
       <c r="C3">
-        <v>0.950017914220922</v>
+        <v>0.2187557384432637</v>
       </c>
       <c r="D3">
-        <v>0.01373509748226631</v>
+        <v>0.0007147538913694351</v>
       </c>
       <c r="E3">
-        <v>0.06464395274051071</v>
+        <v>0.02962364709845389</v>
       </c>
       <c r="F3">
-        <v>2.330636963374104</v>
+        <v>2.605250782691584</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.201690171683609</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06377856308488816</v>
+        <v>0.08542996974127348</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4561918844930233</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1860569122863609</v>
       </c>
       <c r="M3">
-        <v>0.7432492100027943</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.925537692912769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.980450032056154</v>
+        <v>1.890854923337088</v>
       </c>
       <c r="C4">
-        <v>0.8562733622342762</v>
+        <v>0.1989056227442774</v>
       </c>
       <c r="D4">
-        <v>0.01374085866173047</v>
+        <v>0.0006599188413094481</v>
       </c>
       <c r="E4">
-        <v>0.05968174106032365</v>
+        <v>0.0294984231534583</v>
       </c>
       <c r="F4">
-        <v>2.160097964514861</v>
+        <v>2.509686629555347</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.130164576478521</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05944796506523176</v>
+        <v>0.08529967188855991</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4149088682959601</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1738001819819459</v>
       </c>
       <c r="M4">
-        <v>0.6711288441633627</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.854492853863718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.894095758991455</v>
+        <v>1.820594001872024</v>
       </c>
       <c r="C5">
-        <v>0.8184470080381629</v>
+        <v>0.1908517337489712</v>
       </c>
       <c r="D5">
-        <v>0.0137521631999995</v>
+        <v>0.0006386271950240552</v>
       </c>
       <c r="E5">
-        <v>0.05769430975500711</v>
+        <v>0.0294536278878752</v>
       </c>
       <c r="F5">
-        <v>2.091934696977461</v>
+        <v>2.471776932918402</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.10171073882249</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05772124774104093</v>
+        <v>0.08526695692333774</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3982293490409248</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1688713539893811</v>
       </c>
       <c r="M5">
-        <v>0.642033155566736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.82632054159761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.879794871871042</v>
+        <v>1.808966726647583</v>
       </c>
       <c r="C6">
-        <v>0.8121867288082569</v>
+        <v>0.1895162620292012</v>
       </c>
       <c r="D6">
-        <v>0.01375454980254354</v>
+        <v>0.0006351497486436486</v>
       </c>
       <c r="E6">
-        <v>0.05736626833299852</v>
+        <v>0.02944656067776297</v>
       </c>
       <c r="F6">
-        <v>2.080691929130765</v>
+        <v>2.465542041100818</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.09702554369899</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05743668976387717</v>
+        <v>0.08526272901184484</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3954678547116757</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1680567335800944</v>
       </c>
       <c r="M6">
-        <v>0.6372182058798828</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.821687729129664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.979282791765769</v>
+        <v>1.889904661697415</v>
       </c>
       <c r="C7">
-        <v>0.8557617903777555</v>
+        <v>0.1987968743190294</v>
       </c>
       <c r="D7">
-        <v>0.01374097629133608</v>
+        <v>0.0006596276856363215</v>
       </c>
       <c r="E7">
-        <v>0.05965480309400206</v>
+        <v>0.02949779403776365</v>
       </c>
       <c r="F7">
-        <v>2.159173513811865</v>
+        <v>2.509171292531022</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.129778137114528</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05942453011336468</v>
+        <v>0.08529914936923788</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4146833658613218</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1737334511313975</v>
       </c>
       <c r="M7">
-        <v>0.6707353226492998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.854109843243677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.424725215324315</v>
+        <v>2.253374322483126</v>
       </c>
       <c r="C8">
-        <v>1.051529156638367</v>
+        <v>0.2400837045172466</v>
       </c>
       <c r="D8">
-        <v>0.01376278224854133</v>
+        <v>0.000777454821876411</v>
       </c>
       <c r="E8">
-        <v>0.07007055959967801</v>
+        <v>0.0297791404436909</v>
       </c>
       <c r="F8">
-        <v>2.517660725250551</v>
+        <v>2.711003623074063</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.280621851697347</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06854344895931774</v>
+        <v>0.08564135335526402</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.5007909507402957</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1993784950852699</v>
       </c>
       <c r="M8">
-        <v>0.8213539481576504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.004200106882394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.330957610652717</v>
+        <v>2.994901648898406</v>
       </c>
       <c r="C9">
-        <v>1.453037003093925</v>
+        <v>0.3229114600312357</v>
       </c>
       <c r="D9">
-        <v>0.01418433306229261</v>
+        <v>0.001059477745343207</v>
       </c>
       <c r="E9">
-        <v>0.09197003983599572</v>
+        <v>0.03054380174881643</v>
       </c>
       <c r="F9">
-        <v>3.277100118225349</v>
+        <v>3.146500237893775</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.605301218412876</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08803163302145478</v>
+        <v>0.08703287099300638</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6757930881606811</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2522517675091365</v>
       </c>
       <c r="M9">
-        <v>1.130166826384439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.328567816420971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.027517497225006</v>
+        <v>3.56381620818604</v>
       </c>
       <c r="C10">
-        <v>1.764494423567726</v>
+        <v>0.38562604056645</v>
       </c>
       <c r="D10">
-        <v>0.01482229474900265</v>
+        <v>0.001316003390197329</v>
       </c>
       <c r="E10">
-        <v>0.1093317676425762</v>
+        <v>0.03125079846812717</v>
       </c>
       <c r="F10">
-        <v>3.883645525350687</v>
+        <v>3.497360296669569</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.868323641101782</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1037293504037891</v>
+        <v>0.08856688681892066</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8096531801235898</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2931530684413417</v>
       </c>
       <c r="M10">
-        <v>1.369388064860885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.590349650404931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.353964333372971</v>
+        <v>3.829541725888987</v>
       </c>
       <c r="C11">
-        <v>1.9113003964261</v>
+        <v>0.4147467724222338</v>
       </c>
       <c r="D11">
-        <v>0.01521059730623975</v>
+        <v>0.001448449739280377</v>
       </c>
       <c r="E11">
-        <v>0.117605762654776</v>
+        <v>0.0316078612964823</v>
       </c>
       <c r="F11">
-        <v>4.173904934981579</v>
+        <v>3.665384040408298</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.995126130176303</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1112773308262867</v>
+        <v>0.0893941604945816</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8720900856189644</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3123285858836908</v>
       </c>
       <c r="M11">
-        <v>1.48200021687056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.715845622474831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.47924552319563</v>
+        <v>3.93131939879197</v>
       </c>
       <c r="C12">
-        <v>1.967782520068624</v>
+        <v>0.4258768873579868</v>
       </c>
       <c r="D12">
-        <v>0.01537449451911499</v>
+        <v>0.001501380914980199</v>
       </c>
       <c r="E12">
-        <v>0.1208028668302745</v>
+        <v>0.03174853799244559</v>
       </c>
       <c r="F12">
-        <v>4.2862562100525</v>
+        <v>3.730381621896527</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.044353584453603</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1142047653955238</v>
+        <v>0.08972777690944156</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.8959925008707614</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3196832798266911</v>
       </c>
       <c r="M12">
-        <v>1.525298401016684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.764413731391258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.452184971233976</v>
+        <v>3.909345749862837</v>
       </c>
       <c r="C13">
-        <v>1.955575788073759</v>
+        <v>0.4234749433856848</v>
       </c>
       <c r="D13">
-        <v>0.01533839734436881</v>
+        <v>0.001489848653704717</v>
       </c>
       <c r="E13">
-        <v>0.1201112963644171</v>
+        <v>0.03171799137867559</v>
       </c>
       <c r="F13">
-        <v>4.261944376679367</v>
+        <v>3.716319505685703</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.033694541534885</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1135710247424058</v>
+        <v>0.08965499196751736</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8908325344292365</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3180949657793803</v>
       </c>
       <c r="M13">
-        <v>1.515942319788479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.75390508813102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.364236164107581</v>
+        <v>3.837890952968564</v>
       </c>
       <c r="C14">
-        <v>1.915928410374704</v>
+        <v>0.4156602855868243</v>
       </c>
       <c r="D14">
-        <v>0.01522372583825771</v>
+        <v>0.001452745527217081</v>
       </c>
       <c r="E14">
-        <v>0.1178674471803411</v>
+        <v>0.03161932306955961</v>
       </c>
       <c r="F14">
-        <v>4.18309695216999</v>
+        <v>3.670702972381577</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.999150704671109</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1115167189315223</v>
+        <v>0.08942118890300321</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8740511344411743</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3129317195745216</v>
       </c>
       <c r="M14">
-        <v>1.485548577869565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.719819633883063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.310590798730686</v>
+        <v>3.794278011724771</v>
       </c>
       <c r="C15">
-        <v>1.89176412120645</v>
+        <v>0.410887522939646</v>
       </c>
       <c r="D15">
-        <v>0.0151557716109032</v>
+        <v>0.001430397065380173</v>
       </c>
       <c r="E15">
-        <v>0.1165016684450642</v>
+        <v>0.03155960920642187</v>
       </c>
       <c r="F15">
-        <v>4.135130055921337</v>
+        <v>3.642945119014257</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.97815508845747</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1102677521780429</v>
+        <v>0.08928068229949204</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8638069364244672</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3097816022766295</v>
       </c>
       <c r="M15">
-        <v>1.467020311182893</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.69908139376237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.00639954835799</v>
+        <v>3.54660278131314</v>
       </c>
       <c r="C16">
-        <v>1.755015923820622</v>
+        <v>0.3837362949203111</v>
       </c>
       <c r="D16">
-        <v>0.0147991159651788</v>
+        <v>0.001307706457168045</v>
       </c>
       <c r="E16">
-        <v>0.1087994164741133</v>
+        <v>0.03122820729800502</v>
       </c>
       <c r="F16">
-        <v>3.864995593575543</v>
+        <v>3.486562181267288</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.860195599332101</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1032451341356442</v>
+        <v>0.08851557076773986</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8056068968151209</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2919123093074774</v>
       </c>
       <c r="M16">
-        <v>1.362113812263928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.582287424644377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.822430545502243</v>
+        <v>3.396541601857109</v>
       </c>
       <c r="C17">
-        <v>1.672538744348742</v>
+        <v>0.3672432842158457</v>
       </c>
       <c r="D17">
-        <v>0.01460724781310319</v>
+        <v>0.001236811692475692</v>
       </c>
       <c r="E17">
-        <v>0.1041771832363203</v>
+        <v>0.03103422996941063</v>
       </c>
       <c r="F17">
-        <v>3.703197672069962</v>
+        <v>3.392890082904159</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.789783594230698</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09904828711295721</v>
+        <v>0.08808052338005368</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7703232650049472</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2811036348231113</v>
       </c>
       <c r="M17">
-        <v>1.298800166677793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.512363381513552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.71749845650254</v>
+        <v>3.310871558525093</v>
       </c>
       <c r="C18">
-        <v>1.625571683897078</v>
+        <v>0.3578114394779277</v>
       </c>
       <c r="D18">
-        <v>0.01450593206266149</v>
+        <v>0.001197482184925214</v>
       </c>
       <c r="E18">
-        <v>0.1015533206655626</v>
+        <v>0.03092597133644759</v>
       </c>
       <c r="F18">
-        <v>3.611459833794555</v>
+        <v>3.339793836107503</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.749945265185261</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09667195232365344</v>
+        <v>0.08784236449297467</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7501718500052164</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.27493959440433</v>
       </c>
       <c r="M18">
-        <v>1.26273299586812</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.472740044291442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.682113764290079</v>
+        <v>3.281970778182028</v>
       </c>
       <c r="C19">
-        <v>1.609746173950668</v>
+        <v>0.3546268368108088</v>
       </c>
       <c r="D19">
-        <v>0.0144731053130478</v>
+        <v>0.001184400247133288</v>
       </c>
       <c r="E19">
-        <v>0.1006706143734029</v>
+        <v>0.03088987514860086</v>
       </c>
       <c r="F19">
-        <v>3.580615918158884</v>
+        <v>3.321945992998849</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.736565105984454</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09587352330829191</v>
+        <v>0.08776375126515745</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7433723973675512</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2728613008958831</v>
       </c>
       <c r="M19">
-        <v>1.25057818146233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.459422942185995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.841921150088069</v>
+        <v>3.412448429473613</v>
       </c>
       <c r="C20">
-        <v>1.681268737406299</v>
+        <v>0.3689932320966705</v>
       </c>
       <c r="D20">
-        <v>0.01462671837024132</v>
+        <v>0.001244205338779558</v>
       </c>
       <c r="E20">
-        <v>0.1046655676618293</v>
+        <v>0.03105453388134194</v>
       </c>
       <c r="F20">
-        <v>3.720281778339739</v>
+        <v>3.402779656923542</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.797209457847075</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09949108743604995</v>
+        <v>0.0881255739251543</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.7740642351765388</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2822486908667514</v>
       </c>
       <c r="M20">
-        <v>1.305503137116702</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.519744472750332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.390021223439817</v>
+        <v>3.858846309491582</v>
       </c>
       <c r="C21">
-        <v>1.927548305518769</v>
+        <v>0.4179526999461984</v>
       </c>
       <c r="D21">
-        <v>0.0152569257195978</v>
+        <v>0.001463563742922114</v>
       </c>
       <c r="E21">
-        <v>0.1185246988777848</v>
+        <v>0.03164815288468859</v>
       </c>
       <c r="F21">
-        <v>4.206186943481981</v>
+        <v>3.684063079614106</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.009262630898789</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1121181472606168</v>
+        <v>0.08948929552455098</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8789728939339625</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3144456584933835</v>
       </c>
       <c r="M21">
-        <v>1.494457234055531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.729801922029637</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.758096820414323</v>
+        <v>4.157402422261441</v>
       </c>
       <c r="C22">
-        <v>2.093783941547372</v>
+        <v>0.4505592192436154</v>
       </c>
       <c r="D22">
-        <v>0.01576871888445908</v>
+        <v>0.001623415412868479</v>
       </c>
       <c r="E22">
-        <v>0.1279608099889415</v>
+        <v>0.03206817332174339</v>
       </c>
       <c r="F22">
-        <v>4.538175136757275</v>
+        <v>3.875976251541118</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.155011841114927</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1207801659345691</v>
+        <v>0.09050011531712343</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9490665210963272</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3360386737877974</v>
       </c>
       <c r="M22">
-        <v>1.62182856181586</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.873249376515417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.56063868337344</v>
+        <v>3.997377083942411</v>
       </c>
       <c r="C23">
-        <v>2.004520308600149</v>
+        <v>0.4330943621705217</v>
       </c>
       <c r="D23">
-        <v>0.01548537432778829</v>
+        <v>0.001536398063036959</v>
       </c>
       <c r="E23">
-        <v>0.1228862738582919</v>
+        <v>0.03184093417262979</v>
       </c>
       <c r="F23">
-        <v>4.359526984637739</v>
+        <v>3.772751171092438</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.076499558416913</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1161156177301841</v>
+        <v>0.08994905552735233</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9115028061479364</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3244595444718072</v>
       </c>
       <c r="M23">
-        <v>1.553452099846339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.796079934360677</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.833106870527729</v>
+        <v>3.405255088880438</v>
       </c>
       <c r="C24">
-        <v>1.677320516595785</v>
+        <v>0.3682019255819853</v>
       </c>
       <c r="D24">
-        <v>0.01461788792493834</v>
+        <v>0.001240858258546584</v>
       </c>
       <c r="E24">
-        <v>0.1044446653746931</v>
+        <v>0.03104534435098394</v>
       </c>
       <c r="F24">
-        <v>3.712554088410798</v>
+        <v>3.398306234225203</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.793850237086886</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09929078453699347</v>
+        <v>0.08810516946273594</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7723725291186128</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2817308561073304</v>
       </c>
       <c r="M24">
-        <v>1.302471695962666</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.516405693567492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.081267528263595</v>
+        <v>2.790582238594254</v>
       </c>
       <c r="C25">
-        <v>1.34198913408369</v>
+        <v>0.3002348461164956</v>
       </c>
       <c r="D25">
-        <v>0.01402060081061407</v>
+        <v>0.0009760190577898786</v>
       </c>
       <c r="E25">
-        <v>0.08585226849728045</v>
+        <v>0.03031265147589934</v>
       </c>
       <c r="F25">
-        <v>3.064259269755269</v>
+        <v>3.023786729442776</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.513720630007739</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08254953278837718</v>
+        <v>0.08657225925799494</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.6276434375976265</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2376250223885279</v>
       </c>
       <c r="M25">
-        <v>1.044791512433449</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>2.237101726567943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.353582509274815</v>
+        <v>1.061113278933988</v>
       </c>
       <c r="C2">
-        <v>0.2513723966816173</v>
+        <v>0.1618476210113329</v>
       </c>
       <c r="D2">
-        <v>0.0008122504509324724</v>
+        <v>0.3785165108487831</v>
       </c>
       <c r="E2">
-        <v>0.02986926513978716</v>
+        <v>1.364225124840473</v>
       </c>
       <c r="F2">
-        <v>2.768151978784289</v>
+        <v>6.646094868315714</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08578038865885063</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5244861292365215</v>
+        <v>1.12689730298078</v>
       </c>
       <c r="L2">
-        <v>0.2064857355533292</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.04672689169908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.064971182888314</v>
+        <v>0.9089676810160654</v>
       </c>
       <c r="C3">
-        <v>0.2187557384432637</v>
+        <v>0.13740395677425</v>
       </c>
       <c r="D3">
-        <v>0.0007147538913694351</v>
+        <v>0.3391782294703347</v>
       </c>
       <c r="E3">
-        <v>0.02962364709845389</v>
+        <v>1.163290722026062</v>
       </c>
       <c r="F3">
-        <v>2.605250782691584</v>
+        <v>5.868307764395951</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08542996974127348</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4561918844930233</v>
+        <v>0.9616681640518436</v>
       </c>
       <c r="L3">
-        <v>0.1860569122863609</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.925537692912769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.890854923337088</v>
+        <v>0.818203195549728</v>
       </c>
       <c r="C4">
-        <v>0.1989056227442774</v>
+        <v>0.1229058108588674</v>
       </c>
       <c r="D4">
-        <v>0.0006599188413094481</v>
+        <v>0.3154707904042482</v>
       </c>
       <c r="E4">
-        <v>0.0294984231534583</v>
+        <v>1.043548532792911</v>
       </c>
       <c r="F4">
-        <v>2.509686629555347</v>
+        <v>5.400462015807591</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08529967188855991</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4149088682959601</v>
+        <v>0.8632198345384268</v>
       </c>
       <c r="L4">
-        <v>0.1738001819819459</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.854492853863718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.820594001872024</v>
+        <v>0.7817888140670277</v>
       </c>
       <c r="C5">
-        <v>0.1908517337489712</v>
+        <v>0.1171048983234186</v>
       </c>
       <c r="D5">
-        <v>0.0006386271950240552</v>
+        <v>0.3059011813465133</v>
       </c>
       <c r="E5">
-        <v>0.0294536278878752</v>
+        <v>0.9955134025282035</v>
       </c>
       <c r="F5">
-        <v>2.471776932918402</v>
+        <v>5.211873398800947</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08526695692333774</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3982293490409248</v>
+        <v>0.8237457873689777</v>
       </c>
       <c r="L5">
-        <v>0.1688713539893811</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.82632054159761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.808966726647583</v>
+        <v>0.7757742719293219</v>
       </c>
       <c r="C6">
-        <v>0.1895162620292012</v>
+        <v>0.1161475650313406</v>
       </c>
       <c r="D6">
-        <v>0.0006351497486436486</v>
+        <v>0.3043171030678025</v>
       </c>
       <c r="E6">
-        <v>0.02944656067776297</v>
+        <v>0.9875790475210806</v>
       </c>
       <c r="F6">
-        <v>2.465542041100818</v>
+        <v>5.180672560283767</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08526272901184484</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3954678547116757</v>
+        <v>0.817227073118147</v>
       </c>
       <c r="L6">
-        <v>0.1680567335800944</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.821687729129664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.889904661697415</v>
+        <v>0.8177098960414071</v>
       </c>
       <c r="C7">
-        <v>0.1987968743190294</v>
+        <v>0.1228271697929841</v>
       </c>
       <c r="D7">
-        <v>0.0006596276856363215</v>
+        <v>0.315341387426713</v>
       </c>
       <c r="E7">
-        <v>0.02949779403776365</v>
+        <v>1.042897821886527</v>
       </c>
       <c r="F7">
-        <v>2.509171292531022</v>
+        <v>5.397910768771766</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08529914936923788</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4146833658613218</v>
+        <v>0.8626850016591163</v>
       </c>
       <c r="L7">
-        <v>0.1737334511313975</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.854109843243677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.253374322483126</v>
+        <v>1.008042467504168</v>
       </c>
       <c r="C8">
-        <v>0.2400837045172466</v>
+        <v>0.1532999653171458</v>
       </c>
       <c r="D8">
-        <v>0.000777454821876411</v>
+        <v>0.3648467234181254</v>
       </c>
       <c r="E8">
-        <v>0.0297791404436909</v>
+        <v>1.294090916600723</v>
       </c>
       <c r="F8">
-        <v>2.711003623074063</v>
+        <v>6.375653821646296</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08564135335526402</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5007909507402957</v>
+        <v>1.06923225116833</v>
       </c>
       <c r="L8">
-        <v>0.1993784950852699</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.004200106882394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.994901648898406</v>
+        <v>1.407254150538023</v>
       </c>
       <c r="C9">
-        <v>0.3229114600312357</v>
+        <v>0.218218768998355</v>
       </c>
       <c r="D9">
-        <v>0.001059477745343207</v>
+        <v>0.4665467924767199</v>
       </c>
       <c r="E9">
-        <v>0.03054380174881643</v>
+        <v>1.823593975582099</v>
       </c>
       <c r="F9">
-        <v>3.146500237893775</v>
+        <v>8.389849295153937</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08703287099300638</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6757930881606811</v>
+        <v>1.503878640610736</v>
       </c>
       <c r="L9">
-        <v>0.2522517675091365</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.328567816420971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.56381620818604</v>
+        <v>1.724496718037358</v>
       </c>
       <c r="C10">
-        <v>0.38562604056645</v>
+        <v>0.2709206617869029</v>
       </c>
       <c r="D10">
-        <v>0.001316003390197329</v>
+        <v>0.545842119285453</v>
       </c>
       <c r="E10">
-        <v>0.03125079846812717</v>
+        <v>2.248795319963648</v>
       </c>
       <c r="F10">
-        <v>3.497360296669569</v>
+        <v>9.960982682667748</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08856688681892066</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8096531801235898</v>
+        <v>1.850830284566655</v>
       </c>
       <c r="L10">
-        <v>0.2931530684413417</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.590349650404931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.829541725888987</v>
+        <v>1.876283917142473</v>
       </c>
       <c r="C11">
-        <v>0.4147467724222338</v>
+        <v>0.2965127938326901</v>
       </c>
       <c r="D11">
-        <v>0.001448449739280377</v>
+        <v>0.5833943280078131</v>
       </c>
       <c r="E11">
-        <v>0.0316078612964823</v>
+        <v>2.454039209688233</v>
       </c>
       <c r="F11">
-        <v>3.665384040408298</v>
+        <v>10.70446230129318</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0893941604945816</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8720900856189644</v>
+        <v>2.017351129874726</v>
       </c>
       <c r="L11">
-        <v>0.3123285858836908</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.715845622474831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.93131939879197</v>
+        <v>1.935072207115809</v>
       </c>
       <c r="C12">
-        <v>0.4258768873579868</v>
+        <v>0.3064926010519287</v>
       </c>
       <c r="D12">
-        <v>0.001501380914980199</v>
+        <v>0.5978771582942102</v>
       </c>
       <c r="E12">
-        <v>0.03174853799244559</v>
+        <v>2.533883755052969</v>
       </c>
       <c r="F12">
-        <v>3.730381621896527</v>
+        <v>10.99105131126191</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08972777690944156</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8959925008707614</v>
+        <v>2.081938910606908</v>
       </c>
       <c r="L12">
-        <v>0.3196832798266911</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.764413731391258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.909345749862837</v>
+        <v>1.922348574867641</v>
       </c>
       <c r="C13">
-        <v>0.4234749433856848</v>
+        <v>0.3043294099514071</v>
       </c>
       <c r="D13">
-        <v>0.001489848653704717</v>
+        <v>0.5947454438142472</v>
       </c>
       <c r="E13">
-        <v>0.03171799137867559</v>
+        <v>2.516585556743934</v>
       </c>
       <c r="F13">
-        <v>3.716319505685703</v>
+        <v>10.92908818387286</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08965499196751736</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8908325344292365</v>
+        <v>2.067955635840718</v>
       </c>
       <c r="L13">
-        <v>0.3180949657793803</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.75390508813102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.837890952968564</v>
+        <v>1.881092695068531</v>
       </c>
       <c r="C14">
-        <v>0.4156602855868243</v>
+        <v>0.2973276896145762</v>
       </c>
       <c r="D14">
-        <v>0.001452745527217081</v>
+        <v>0.5845802560608888</v>
       </c>
       <c r="E14">
-        <v>0.03161932306955961</v>
+        <v>2.460562737142155</v>
       </c>
       <c r="F14">
-        <v>3.670702972381577</v>
+        <v>10.72793308254182</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08942118890300321</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8740511344411743</v>
+        <v>2.022632328922526</v>
       </c>
       <c r="L14">
-        <v>0.3129317195745216</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.719819633883063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.794278011724771</v>
+        <v>1.856000649428466</v>
       </c>
       <c r="C15">
-        <v>0.410887522939646</v>
+        <v>0.2930783902397991</v>
       </c>
       <c r="D15">
-        <v>0.001430397065380173</v>
+        <v>0.5783896277802398</v>
       </c>
       <c r="E15">
-        <v>0.03155960920642187</v>
+        <v>2.426537886491275</v>
       </c>
       <c r="F15">
-        <v>3.642945119014257</v>
+        <v>10.60540749703642</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08928068229949204</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8638069364244672</v>
+        <v>1.995079046335661</v>
       </c>
       <c r="L15">
-        <v>0.3097816022766295</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.69908139376237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.54660278131314</v>
+        <v>1.714746486095294</v>
       </c>
       <c r="C16">
-        <v>0.3837362949203111</v>
+        <v>0.2692852286403138</v>
       </c>
       <c r="D16">
-        <v>0.001307706457168045</v>
+        <v>0.5434218232393278</v>
       </c>
       <c r="E16">
-        <v>0.03122820729800502</v>
+        <v>2.235654032348776</v>
       </c>
       <c r="F16">
-        <v>3.486562181267288</v>
+        <v>9.913047494074448</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08851557076773986</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8056068968151209</v>
+        <v>1.84014531740155</v>
       </c>
       <c r="L16">
-        <v>0.2919123093074774</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.582287424644377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.396541601857109</v>
+        <v>1.630158654733577</v>
       </c>
       <c r="C17">
-        <v>0.3672432842158457</v>
+        <v>0.2551394937311926</v>
       </c>
       <c r="D17">
-        <v>0.001236811692475692</v>
+        <v>0.5223819026830085</v>
       </c>
       <c r="E17">
-        <v>0.03103422996941063</v>
+        <v>2.12185250856281</v>
       </c>
       <c r="F17">
-        <v>3.392890082904159</v>
+        <v>9.496271199994851</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08808052338005368</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7703232650049472</v>
+        <v>1.747506660694967</v>
       </c>
       <c r="L17">
-        <v>0.2811036348231113</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.512363381513552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.310871558525093</v>
+        <v>1.582192759062707</v>
       </c>
       <c r="C18">
-        <v>0.3578114394779277</v>
+        <v>0.2471515514355787</v>
       </c>
       <c r="D18">
-        <v>0.001197482184925214</v>
+        <v>0.5104161671944212</v>
       </c>
       <c r="E18">
-        <v>0.03092597133644759</v>
+        <v>2.057478989508752</v>
       </c>
       <c r="F18">
-        <v>3.339793836107503</v>
+        <v>9.259196117627397</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08784236449297467</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7501718500052164</v>
+        <v>1.695021671001086</v>
       </c>
       <c r="L18">
-        <v>0.27493959440433</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.472740044291442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.281970778182028</v>
+        <v>1.566063854794095</v>
       </c>
       <c r="C19">
-        <v>0.3546268368108088</v>
+        <v>0.244470924892255</v>
       </c>
       <c r="D19">
-        <v>0.001184400247133288</v>
+        <v>0.5063867437159217</v>
       </c>
       <c r="E19">
-        <v>0.03088987514860086</v>
+        <v>2.035857662207377</v>
       </c>
       <c r="F19">
-        <v>3.321945992998849</v>
+        <v>9.179355524807534</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08776375126515745</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7433723973675512</v>
+        <v>1.677380621187268</v>
       </c>
       <c r="L19">
-        <v>0.2728613008958831</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.459422942185995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.412448429473613</v>
+        <v>1.639090536584916</v>
       </c>
       <c r="C20">
-        <v>0.3689932320966705</v>
+        <v>0.2566296136244972</v>
       </c>
       <c r="D20">
-        <v>0.001244205338779558</v>
+        <v>0.524607245443292</v>
       </c>
       <c r="E20">
-        <v>0.03105453388134194</v>
+        <v>2.133852111501511</v>
       </c>
       <c r="F20">
-        <v>3.402779656923542</v>
+        <v>9.540358074826173</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0881255739251543</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7740642351765388</v>
+        <v>1.75728372971858</v>
       </c>
       <c r="L20">
-        <v>0.2822486908667514</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.519744472750332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.858846309491582</v>
+        <v>1.893172884388889</v>
       </c>
       <c r="C21">
-        <v>0.4179526999461984</v>
+        <v>0.2993759241303593</v>
       </c>
       <c r="D21">
-        <v>0.001463563742922114</v>
+        <v>0.5875584455997114</v>
       </c>
       <c r="E21">
-        <v>0.03164815288468859</v>
+        <v>2.476956506161201</v>
       </c>
       <c r="F21">
-        <v>3.684063079614106</v>
+        <v>10.78687200117002</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08948929552455098</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8789728939339625</v>
+        <v>2.035900835753409</v>
       </c>
       <c r="L21">
-        <v>0.3144456584933835</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.729801922029637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.157402422261441</v>
+        <v>2.06701145923094</v>
       </c>
       <c r="C22">
-        <v>0.4505592192436154</v>
+        <v>0.3290309747842173</v>
       </c>
       <c r="D22">
-        <v>0.001623415412868479</v>
+        <v>0.630262107630557</v>
       </c>
       <c r="E22">
-        <v>0.03206817332174339</v>
+        <v>2.713844475134067</v>
       </c>
       <c r="F22">
-        <v>3.875976251541118</v>
+        <v>11.6315355689855</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09050011531712343</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9490665210963272</v>
+        <v>2.227086490084105</v>
       </c>
       <c r="L22">
-        <v>0.3360386737877974</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.873249376515417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.997377083942411</v>
+        <v>1.973427528953664</v>
       </c>
       <c r="C23">
-        <v>0.4330943621705217</v>
+        <v>0.3130244445226822</v>
       </c>
       <c r="D23">
-        <v>0.001536398063036959</v>
+        <v>0.6073083745786505</v>
       </c>
       <c r="E23">
-        <v>0.03184093417262979</v>
+        <v>2.586088089562395</v>
       </c>
       <c r="F23">
-        <v>3.772751171092438</v>
+        <v>11.17762717816754</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08994905552735233</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9115028061479364</v>
+        <v>2.124106367345348</v>
       </c>
       <c r="L23">
-        <v>0.3244595444718072</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.796079934360677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.405255088880438</v>
+        <v>1.635050379292665</v>
       </c>
       <c r="C24">
-        <v>0.3682019255819853</v>
+        <v>0.2559554839945264</v>
       </c>
       <c r="D24">
-        <v>0.001240858258546584</v>
+        <v>0.5236007654561661</v>
       </c>
       <c r="E24">
-        <v>0.03104534435098394</v>
+        <v>2.128423843374733</v>
       </c>
       <c r="F24">
-        <v>3.398306234225203</v>
+        <v>9.52041856882542</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08810516946273594</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7723725291186128</v>
+        <v>1.752861125699155</v>
       </c>
       <c r="L24">
-        <v>0.2817308561073304</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.516405693567492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.790582238594254</v>
+        <v>1.295718639674561</v>
       </c>
       <c r="C25">
-        <v>0.3002348461164956</v>
+        <v>0.19993152405209</v>
       </c>
       <c r="D25">
-        <v>0.0009760190577898786</v>
+        <v>0.4383741786522535</v>
       </c>
       <c r="E25">
-        <v>0.03031265147589934</v>
+        <v>1.675137195600414</v>
       </c>
       <c r="F25">
-        <v>3.023786729442776</v>
+        <v>7.831556813924294</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08657225925799494</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6276434375976265</v>
+        <v>1.382233207331495</v>
       </c>
       <c r="L25">
-        <v>0.2376250223885279</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.237101726567943</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.061113278933988</v>
+        <v>0.5036099671744125</v>
       </c>
       <c r="C2">
-        <v>0.1618476210113329</v>
+        <v>0.04052034902352375</v>
       </c>
       <c r="D2">
-        <v>0.3785165108487831</v>
+        <v>0.1878942985749461</v>
       </c>
       <c r="E2">
-        <v>1.364225124840473</v>
+        <v>0.402314294157577</v>
       </c>
       <c r="F2">
-        <v>6.646094868315714</v>
+        <v>3.487510828285707</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.12689730298078</v>
+        <v>0.4667827300587248</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9089676810160654</v>
+        <v>0.4724063787156183</v>
       </c>
       <c r="C3">
-        <v>0.13740395677425</v>
+        <v>0.03569615230428269</v>
       </c>
       <c r="D3">
-        <v>0.3391782294703347</v>
+        <v>0.1760989280799379</v>
       </c>
       <c r="E3">
-        <v>1.163290722026062</v>
+        <v>0.3508673324255938</v>
       </c>
       <c r="F3">
-        <v>5.868307764395951</v>
+        <v>3.26612213088967</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9616681640518436</v>
+        <v>0.4333145590494496</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.818203195549728</v>
+        <v>0.4537886395938244</v>
       </c>
       <c r="C4">
-        <v>0.1229058108588674</v>
+        <v>0.03278668185521383</v>
       </c>
       <c r="D4">
-        <v>0.3154707904042482</v>
+        <v>0.1688137653518993</v>
       </c>
       <c r="E4">
-        <v>1.043548532792911</v>
+        <v>0.3194104324274178</v>
       </c>
       <c r="F4">
-        <v>5.400462015807591</v>
+        <v>3.130498158311099</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8632198345384268</v>
+        <v>0.4133131964092911</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7817888140670277</v>
+        <v>0.4463366259800807</v>
       </c>
       <c r="C5">
-        <v>0.1171048983234186</v>
+        <v>0.03161388729603232</v>
       </c>
       <c r="D5">
-        <v>0.3059011813465133</v>
+        <v>0.1658337207010021</v>
       </c>
       <c r="E5">
-        <v>0.9955134025282035</v>
+        <v>0.3066218381585486</v>
       </c>
       <c r="F5">
-        <v>5.211873398800947</v>
+        <v>3.075301371088642</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8237457873689777</v>
+        <v>0.4052987025104358</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7757742719293219</v>
+        <v>0.4451073337293963</v>
       </c>
       <c r="C6">
-        <v>0.1161475650313406</v>
+        <v>0.03141990975724696</v>
       </c>
       <c r="D6">
-        <v>0.3043171030678025</v>
+        <v>0.1653381897343706</v>
       </c>
       <c r="E6">
-        <v>0.9875790475210806</v>
+        <v>0.3045000542299618</v>
       </c>
       <c r="F6">
-        <v>5.180672560283767</v>
+        <v>3.066140083660372</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.817227073118147</v>
+        <v>0.4039760823100949</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8177098960414071</v>
+        <v>0.453687594733168</v>
       </c>
       <c r="C7">
-        <v>0.1228271697929841</v>
+        <v>0.03277081366729817</v>
       </c>
       <c r="D7">
-        <v>0.315341387426713</v>
+        <v>0.1687736217985218</v>
       </c>
       <c r="E7">
-        <v>1.042897821886527</v>
+        <v>0.3192378417100912</v>
       </c>
       <c r="F7">
-        <v>5.397910768771766</v>
+        <v>3.129753476227449</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8626850016591163</v>
+        <v>0.4132045607217947</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.008042467504168</v>
+        <v>0.4927378209911524</v>
       </c>
       <c r="C8">
-        <v>0.1532999653171458</v>
+        <v>0.03884580997117837</v>
       </c>
       <c r="D8">
-        <v>0.3648467234181254</v>
+        <v>0.1838358066364947</v>
       </c>
       <c r="E8">
-        <v>1.294090916600723</v>
+        <v>0.3845463406985772</v>
       </c>
       <c r="F8">
-        <v>6.375653821646296</v>
+        <v>3.411107596284069</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.06923225116833</v>
+        <v>0.455128116654862</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.407254150538023</v>
+        <v>0.5736739766610981</v>
       </c>
       <c r="C9">
-        <v>0.218218768998355</v>
+        <v>0.05119463413447534</v>
       </c>
       <c r="D9">
-        <v>0.4665467924767199</v>
+        <v>0.2130585166596433</v>
       </c>
       <c r="E9">
-        <v>1.823593975582099</v>
+        <v>0.513793844762958</v>
       </c>
       <c r="F9">
-        <v>8.389849295153937</v>
+        <v>3.965631833296072</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.503878640610736</v>
+        <v>0.5417697655766744</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.724496718037358</v>
+        <v>0.6358907497860002</v>
       </c>
       <c r="C10">
-        <v>0.2709206617869029</v>
+        <v>0.06055955985114281</v>
       </c>
       <c r="D10">
-        <v>0.545842119285453</v>
+        <v>0.2343733135175228</v>
       </c>
       <c r="E10">
-        <v>2.248795319963648</v>
+        <v>0.6096635881757919</v>
       </c>
       <c r="F10">
-        <v>9.960982682667748</v>
+        <v>4.37524365221384</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.850830284566655</v>
+        <v>0.6082450606347152</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.876283917142473</v>
+        <v>0.6648141964093668</v>
       </c>
       <c r="C11">
-        <v>0.2965127938326901</v>
+        <v>0.0648892788139932</v>
       </c>
       <c r="D11">
-        <v>0.5833943280078131</v>
+        <v>0.2440442864441366</v>
       </c>
       <c r="E11">
-        <v>2.454039209688233</v>
+        <v>0.6535182957295973</v>
       </c>
       <c r="F11">
-        <v>10.70446230129318</v>
+        <v>4.562177163855381</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.017351129874726</v>
+        <v>0.6391254755382363</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.935072207115809</v>
+        <v>0.6758576760110486</v>
       </c>
       <c r="C12">
-        <v>0.3064926010519287</v>
+        <v>0.06653930966228927</v>
       </c>
       <c r="D12">
-        <v>0.5978771582942102</v>
+        <v>0.2477034236526094</v>
       </c>
       <c r="E12">
-        <v>2.533883755052969</v>
+        <v>0.6701632973675515</v>
       </c>
       <c r="F12">
-        <v>10.99105131126191</v>
+        <v>4.633058606358816</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.081938910606908</v>
+        <v>0.6509132733907279</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.922348574867641</v>
+        <v>0.6734752019106054</v>
       </c>
       <c r="C13">
-        <v>0.3043294099514071</v>
+        <v>0.06618347340581465</v>
       </c>
       <c r="D13">
-        <v>0.5947454438142472</v>
+        <v>0.2469154893754819</v>
       </c>
       <c r="E13">
-        <v>2.516585556743934</v>
+        <v>0.6665767486053653</v>
       </c>
       <c r="F13">
-        <v>10.92908818387286</v>
+        <v>4.617788725657647</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.067955635840718</v>
+        <v>0.6483703454627516</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.881092695068531</v>
+        <v>0.6657209214454838</v>
       </c>
       <c r="C14">
-        <v>0.2973276896145762</v>
+        <v>0.06502481555834549</v>
       </c>
       <c r="D14">
-        <v>0.5845802560608888</v>
+        <v>0.2443453836619369</v>
       </c>
       <c r="E14">
-        <v>2.460562737142155</v>
+        <v>0.6548869062502405</v>
       </c>
       <c r="F14">
-        <v>10.72793308254182</v>
+        <v>4.568006699117689</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.022632328922526</v>
+        <v>0.6400933683956112</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.856000649428466</v>
+        <v>0.6609830716621161</v>
       </c>
       <c r="C15">
-        <v>0.2930783902397991</v>
+        <v>0.06431648010985214</v>
       </c>
       <c r="D15">
-        <v>0.5783896277802398</v>
+        <v>0.2427707397322649</v>
       </c>
       <c r="E15">
-        <v>2.426537886491275</v>
+        <v>0.6477316085807558</v>
       </c>
       <c r="F15">
-        <v>10.60540749703642</v>
+        <v>4.537526212058935</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.995079046335661</v>
+        <v>0.6350357885032736</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.714746486095294</v>
+        <v>0.6340131557639666</v>
       </c>
       <c r="C16">
-        <v>0.2692852286403138</v>
+        <v>0.06027804122557257</v>
       </c>
       <c r="D16">
-        <v>0.5434218232393278</v>
+        <v>0.233740834203445</v>
       </c>
       <c r="E16">
-        <v>2.235654032348776</v>
+        <v>0.6068027451735958</v>
       </c>
       <c r="F16">
-        <v>9.913047494074448</v>
+        <v>4.363039811763372</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.84014531740155</v>
+        <v>0.6062400069798457</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.630158654733577</v>
+        <v>0.61762805129149</v>
       </c>
       <c r="C17">
-        <v>0.2551394937311926</v>
+        <v>0.05781872960021417</v>
       </c>
       <c r="D17">
-        <v>0.5223819026830085</v>
+        <v>0.2281952259479567</v>
       </c>
       <c r="E17">
-        <v>2.12185250856281</v>
+        <v>0.5817587434397495</v>
       </c>
       <c r="F17">
-        <v>9.496271199994851</v>
+        <v>4.256156879186477</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.747506660694967</v>
+        <v>0.5887401450713128</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.582192759062707</v>
+        <v>0.6082621038130753</v>
       </c>
       <c r="C18">
-        <v>0.2471515514355787</v>
+        <v>0.05641071874924819</v>
       </c>
       <c r="D18">
-        <v>0.5104161671944212</v>
+        <v>0.2250031285518759</v>
       </c>
       <c r="E18">
-        <v>2.057478989508752</v>
+        <v>0.5673767794070841</v>
       </c>
       <c r="F18">
-        <v>9.259196117627397</v>
+        <v>4.19473656342538</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.695021671001086</v>
+        <v>0.5787348517136195</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.566063854794095</v>
+        <v>0.6051009270976806</v>
       </c>
       <c r="C19">
-        <v>0.244470924892255</v>
+        <v>0.0559350965476284</v>
       </c>
       <c r="D19">
-        <v>0.5063867437159217</v>
+        <v>0.2239219077478225</v>
       </c>
       <c r="E19">
-        <v>2.035857662207377</v>
+        <v>0.562511092318573</v>
       </c>
       <c r="F19">
-        <v>9.179355524807534</v>
+        <v>4.173950073580272</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.677380621187268</v>
+        <v>0.5753575057074443</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.639090536584916</v>
+        <v>0.6193662255465711</v>
       </c>
       <c r="C20">
-        <v>0.2566296136244972</v>
+        <v>0.05807984943200495</v>
       </c>
       <c r="D20">
-        <v>0.524607245443292</v>
+        <v>0.2287858106899421</v>
       </c>
       <c r="E20">
-        <v>2.133852111501511</v>
+        <v>0.5844223494057417</v>
       </c>
       <c r="F20">
-        <v>9.540358074826173</v>
+        <v>4.267528907387884</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.75728372971858</v>
+        <v>0.5905967944376584</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.893172884388889</v>
+        <v>0.667996064900592</v>
       </c>
       <c r="C21">
-        <v>0.2993759241303593</v>
+        <v>0.06536485388213009</v>
       </c>
       <c r="D21">
-        <v>0.5875584455997114</v>
+        <v>0.2451003641552916</v>
       </c>
       <c r="E21">
-        <v>2.476956506161201</v>
+        <v>0.6583194342497478</v>
       </c>
       <c r="F21">
-        <v>10.78687200117002</v>
+        <v>4.582626280412626</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.035900835753409</v>
+        <v>0.6425219487595939</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.06701145923094</v>
+        <v>0.7003084580388759</v>
       </c>
       <c r="C22">
-        <v>0.3290309747842173</v>
+        <v>0.07018721421148655</v>
       </c>
       <c r="D22">
-        <v>0.630262107630557</v>
+        <v>0.2557453611648839</v>
       </c>
       <c r="E22">
-        <v>2.713844475134067</v>
+        <v>0.7068395096332551</v>
       </c>
       <c r="F22">
-        <v>11.6315355689855</v>
+        <v>4.789110879957661</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.227086490084105</v>
+        <v>0.6770072031177108</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.973427528953664</v>
+        <v>0.6830137140461261</v>
       </c>
       <c r="C23">
-        <v>0.3130244445226822</v>
+        <v>0.06760767771635301</v>
       </c>
       <c r="D23">
-        <v>0.6073083745786505</v>
+        <v>0.2500653350336393</v>
       </c>
       <c r="E23">
-        <v>2.586088089562395</v>
+        <v>0.6809218496353111</v>
       </c>
       <c r="F23">
-        <v>11.17762717816754</v>
+        <v>4.678853257815661</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.124106367345348</v>
+        <v>0.6585508671337834</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.635050379292665</v>
+        <v>0.6185802286740341</v>
       </c>
       <c r="C24">
-        <v>0.2559554839945264</v>
+        <v>0.05796177887495446</v>
       </c>
       <c r="D24">
-        <v>0.5236007654561661</v>
+        <v>0.2285188193744148</v>
       </c>
       <c r="E24">
-        <v>2.128423843374733</v>
+        <v>0.5832180830372806</v>
       </c>
       <c r="F24">
-        <v>9.52041856882542</v>
+        <v>4.262387526469809</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.752861125699155</v>
+        <v>0.5897572301927312</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.295718639674561</v>
+        <v>0.5513021923533188</v>
       </c>
       <c r="C25">
-        <v>0.19993152405209</v>
+        <v>0.04780457923702386</v>
       </c>
       <c r="D25">
-        <v>0.4383741786522535</v>
+        <v>0.205182891130022</v>
       </c>
       <c r="E25">
-        <v>1.675137195600414</v>
+        <v>0.4786830788613656</v>
       </c>
       <c r="F25">
-        <v>7.831556813924294</v>
+        <v>3.815268189410062</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.382233207331495</v>
+        <v>0.5178445011083284</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5036099671744125</v>
+        <v>1.061113278934187</v>
       </c>
       <c r="C2">
-        <v>0.04052034902352375</v>
+        <v>0.1618476210125976</v>
       </c>
       <c r="D2">
-        <v>0.1878942985749461</v>
+        <v>0.3785165108487689</v>
       </c>
       <c r="E2">
-        <v>0.402314294157577</v>
+        <v>1.364225124840402</v>
       </c>
       <c r="F2">
-        <v>3.487510828285707</v>
+        <v>6.646094868315743</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4667827300587248</v>
+        <v>1.126897302980836</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4724063787156183</v>
+        <v>0.9089676810157243</v>
       </c>
       <c r="C3">
-        <v>0.03569615230428269</v>
+        <v>0.1374039567740084</v>
       </c>
       <c r="D3">
-        <v>0.1760989280799379</v>
+        <v>0.3391782294703773</v>
       </c>
       <c r="E3">
-        <v>0.3508673324255938</v>
+        <v>1.163290722026062</v>
       </c>
       <c r="F3">
-        <v>3.26612213088967</v>
+        <v>5.868307764395951</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4333145590494496</v>
+        <v>0.9616681640517868</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4537886395938244</v>
+        <v>0.8182031955495859</v>
       </c>
       <c r="C4">
-        <v>0.03278668185521383</v>
+        <v>0.1229058108587537</v>
       </c>
       <c r="D4">
-        <v>0.1688137653518993</v>
+        <v>0.3154707904038929</v>
       </c>
       <c r="E4">
-        <v>0.3194104324274178</v>
+        <v>1.043548532792869</v>
       </c>
       <c r="F4">
-        <v>3.130498158311099</v>
+        <v>5.400462015807534</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4133131964092911</v>
+        <v>0.8632198345383131</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4463366259800807</v>
+        <v>0.7817888140667435</v>
       </c>
       <c r="C5">
-        <v>0.03161388729603232</v>
+        <v>0.1171048983232623</v>
       </c>
       <c r="D5">
-        <v>0.1658337207010021</v>
+        <v>0.3059011813462575</v>
       </c>
       <c r="E5">
-        <v>0.3066218381585486</v>
+        <v>0.9955134025281751</v>
       </c>
       <c r="F5">
-        <v>3.075301371088642</v>
+        <v>5.211873398801004</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4052987025104358</v>
+        <v>0.8237457873690062</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4451073337293963</v>
+        <v>0.7757742719294356</v>
       </c>
       <c r="C6">
-        <v>0.03141990975724696</v>
+        <v>0.1161475650312269</v>
       </c>
       <c r="D6">
-        <v>0.1653381897343706</v>
+        <v>0.3043171030674756</v>
       </c>
       <c r="E6">
-        <v>0.3045000542299618</v>
+        <v>0.9875790475210664</v>
       </c>
       <c r="F6">
-        <v>3.066140083660372</v>
+        <v>5.180672560283767</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4039760823100949</v>
+        <v>0.8172270731180049</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.453687594733168</v>
+        <v>0.8177098960413787</v>
       </c>
       <c r="C7">
-        <v>0.03277081366729817</v>
+        <v>0.1228271697932684</v>
       </c>
       <c r="D7">
-        <v>0.1687736217985218</v>
+        <v>0.3153413874265993</v>
       </c>
       <c r="E7">
-        <v>0.3192378417100912</v>
+        <v>1.042897821886484</v>
       </c>
       <c r="F7">
-        <v>3.129753476227449</v>
+        <v>5.397910768771709</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4132045607217947</v>
+        <v>0.8626850016591732</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4927378209911524</v>
+        <v>1.00804246750414</v>
       </c>
       <c r="C8">
-        <v>0.03884580997117837</v>
+        <v>0.1532999653169043</v>
       </c>
       <c r="D8">
-        <v>0.1838358066364947</v>
+        <v>0.3648467234183386</v>
       </c>
       <c r="E8">
-        <v>0.3845463406985772</v>
+        <v>1.294090916600751</v>
       </c>
       <c r="F8">
-        <v>3.411107596284069</v>
+        <v>6.375653821646296</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.455128116654862</v>
+        <v>1.069232251168444</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5736739766610981</v>
+        <v>1.407254150537597</v>
       </c>
       <c r="C9">
-        <v>0.05119463413447534</v>
+        <v>0.2182187689987529</v>
       </c>
       <c r="D9">
-        <v>0.2130585166596433</v>
+        <v>0.4665467924766347</v>
       </c>
       <c r="E9">
-        <v>0.513793844762958</v>
+        <v>1.823593975582071</v>
       </c>
       <c r="F9">
-        <v>3.965631833296072</v>
+        <v>8.389849295154022</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5417697655766744</v>
+        <v>1.503878640610509</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6358907497860002</v>
+        <v>1.724496718037216</v>
       </c>
       <c r="C10">
-        <v>0.06055955985114281</v>
+        <v>0.2709206617869029</v>
       </c>
       <c r="D10">
-        <v>0.2343733135175228</v>
+        <v>0.5458421192852541</v>
       </c>
       <c r="E10">
-        <v>0.6096635881757919</v>
+        <v>2.248795319963676</v>
       </c>
       <c r="F10">
-        <v>4.37524365221384</v>
+        <v>9.960982682667748</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6082450606347152</v>
+        <v>1.850830284566683</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6648141964093668</v>
+        <v>1.876283917142217</v>
       </c>
       <c r="C11">
-        <v>0.0648892788139932</v>
+        <v>0.2965127938317522</v>
       </c>
       <c r="D11">
-        <v>0.2440442864441366</v>
+        <v>0.5833943280080121</v>
       </c>
       <c r="E11">
-        <v>0.6535182957295973</v>
+        <v>2.454039209688318</v>
       </c>
       <c r="F11">
-        <v>4.562177163855381</v>
+        <v>10.70446230129323</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6391254755382363</v>
+        <v>2.017351129874669</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6758576760110486</v>
+        <v>1.935072207115752</v>
       </c>
       <c r="C12">
-        <v>0.06653930966228927</v>
+        <v>0.3064926010513744</v>
       </c>
       <c r="D12">
-        <v>0.2477034236526094</v>
+        <v>0.5978771582938691</v>
       </c>
       <c r="E12">
-        <v>0.6701632973675515</v>
+        <v>2.533883755052912</v>
       </c>
       <c r="F12">
-        <v>4.633058606358816</v>
+        <v>10.99105131126214</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6509132733907279</v>
+        <v>2.081938910606993</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6734752019106054</v>
+        <v>1.922348574867442</v>
       </c>
       <c r="C13">
-        <v>0.06618347340581465</v>
+        <v>0.3043294099509382</v>
       </c>
       <c r="D13">
-        <v>0.2469154893754819</v>
+        <v>0.5947454438140198</v>
       </c>
       <c r="E13">
-        <v>0.6665767486053653</v>
+        <v>2.516585556743891</v>
       </c>
       <c r="F13">
-        <v>4.617788725657647</v>
+        <v>10.92908818387286</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6483703454627516</v>
+        <v>2.067955635840605</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6657209214454838</v>
+        <v>1.881092695068503</v>
       </c>
       <c r="C14">
-        <v>0.06502481555834549</v>
+        <v>0.2973276896145762</v>
       </c>
       <c r="D14">
-        <v>0.2443453836619369</v>
+        <v>0.5845802560608888</v>
       </c>
       <c r="E14">
-        <v>0.6548869062502405</v>
+        <v>2.460562737142254</v>
       </c>
       <c r="F14">
-        <v>4.568006699117689</v>
+        <v>10.72793308254177</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6400933683956112</v>
+        <v>2.022632328922583</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6609830716621161</v>
+        <v>1.856000649428267</v>
       </c>
       <c r="C15">
-        <v>0.06431648010985214</v>
+        <v>0.2930783902406091</v>
       </c>
       <c r="D15">
-        <v>0.2427707397322649</v>
+        <v>0.5783896277796714</v>
       </c>
       <c r="E15">
-        <v>0.6477316085807558</v>
+        <v>2.426537886491303</v>
       </c>
       <c r="F15">
-        <v>4.537526212058935</v>
+        <v>10.60540749703659</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6350357885032736</v>
+        <v>1.995079046335547</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6340131557639666</v>
+        <v>1.714746486095123</v>
       </c>
       <c r="C16">
-        <v>0.06027804122557257</v>
+        <v>0.2692852286408396</v>
       </c>
       <c r="D16">
-        <v>0.233740834203445</v>
+        <v>0.5434218232396688</v>
       </c>
       <c r="E16">
-        <v>0.6068027451735958</v>
+        <v>2.23565403234872</v>
       </c>
       <c r="F16">
-        <v>4.363039811763372</v>
+        <v>9.913047494074419</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6062400069798457</v>
+        <v>1.840145317401351</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.61762805129149</v>
+        <v>1.630158654733521</v>
       </c>
       <c r="C17">
-        <v>0.05781872960021417</v>
+        <v>0.2551394937298852</v>
       </c>
       <c r="D17">
-        <v>0.2281952259479567</v>
+        <v>0.522381902682838</v>
       </c>
       <c r="E17">
-        <v>0.5817587434397495</v>
+        <v>2.121852508562682</v>
       </c>
       <c r="F17">
-        <v>4.256156879186477</v>
+        <v>9.496271199994681</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5887401450713128</v>
+        <v>1.74750666069491</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6082621038130753</v>
+        <v>1.582192759063219</v>
       </c>
       <c r="C18">
-        <v>0.05641071874924819</v>
+        <v>0.2471515514364171</v>
       </c>
       <c r="D18">
-        <v>0.2250031285518759</v>
+        <v>0.5104161671949612</v>
       </c>
       <c r="E18">
-        <v>0.5673767794070841</v>
+        <v>2.05747898950878</v>
       </c>
       <c r="F18">
-        <v>4.19473656342538</v>
+        <v>9.259196117627511</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5787348517136195</v>
+        <v>1.695021671001115</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6051009270976806</v>
+        <v>1.56606385479418</v>
       </c>
       <c r="C19">
-        <v>0.0559350965476284</v>
+        <v>0.2444709248922265</v>
       </c>
       <c r="D19">
-        <v>0.2239219077478225</v>
+        <v>0.5063867437162628</v>
       </c>
       <c r="E19">
-        <v>0.562511092318573</v>
+        <v>2.035857662207377</v>
       </c>
       <c r="F19">
-        <v>4.173950073580272</v>
+        <v>9.179355524807676</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5753575057074443</v>
+        <v>1.677380621187211</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6193662255465711</v>
+        <v>1.639090536585371</v>
       </c>
       <c r="C20">
-        <v>0.05807984943200495</v>
+        <v>0.2566296136249662</v>
       </c>
       <c r="D20">
-        <v>0.2287858106899421</v>
+        <v>0.524607245443292</v>
       </c>
       <c r="E20">
-        <v>0.5844223494057417</v>
+        <v>2.133852111501412</v>
       </c>
       <c r="F20">
-        <v>4.267528907387884</v>
+        <v>9.540358074826116</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5905967944376584</v>
+        <v>1.757283729718466</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.667996064900592</v>
+        <v>1.893172884389344</v>
       </c>
       <c r="C21">
-        <v>0.06536485388213009</v>
+        <v>0.2993759241303877</v>
       </c>
       <c r="D21">
-        <v>0.2451003641552916</v>
+        <v>0.5875584455997398</v>
       </c>
       <c r="E21">
-        <v>0.6583194342497478</v>
+        <v>2.47695650616123</v>
       </c>
       <c r="F21">
-        <v>4.582626280412626</v>
+        <v>10.78687200117008</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6425219487595939</v>
+        <v>2.035900835753552</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7003084580388759</v>
+        <v>2.067011459230457</v>
       </c>
       <c r="C22">
-        <v>0.07018721421148655</v>
+        <v>0.3290309747843452</v>
       </c>
       <c r="D22">
-        <v>0.2557453611648839</v>
+        <v>0.6302621076306707</v>
       </c>
       <c r="E22">
-        <v>0.7068395096332551</v>
+        <v>2.71384447513401</v>
       </c>
       <c r="F22">
-        <v>4.789110879957661</v>
+        <v>11.63153556898533</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6770072031177108</v>
+        <v>2.227086490084105</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6830137140461261</v>
+        <v>1.973427528953835</v>
       </c>
       <c r="C23">
-        <v>0.06760767771635301</v>
+        <v>0.3130244445217016</v>
       </c>
       <c r="D23">
-        <v>0.2500653350336393</v>
+        <v>0.6073083745790768</v>
       </c>
       <c r="E23">
-        <v>0.6809218496353111</v>
+        <v>2.586088089562509</v>
       </c>
       <c r="F23">
-        <v>4.678853257815661</v>
+        <v>11.1776271781676</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6585508671337834</v>
+        <v>2.124106367345377</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6185802286740341</v>
+        <v>1.63505037929275</v>
       </c>
       <c r="C24">
-        <v>0.05796177887495446</v>
+        <v>0.2559554839949101</v>
       </c>
       <c r="D24">
-        <v>0.2285188193744148</v>
+        <v>0.5236007654562798</v>
       </c>
       <c r="E24">
-        <v>0.5832180830372806</v>
+        <v>2.128423843374705</v>
       </c>
       <c r="F24">
-        <v>4.262387526469809</v>
+        <v>9.52041856882559</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5897572301927312</v>
+        <v>1.752861125699241</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5513021923533188</v>
+        <v>1.29571863967476</v>
       </c>
       <c r="C25">
-        <v>0.04780457923702386</v>
+        <v>0.1999315240520474</v>
       </c>
       <c r="D25">
-        <v>0.205182891130022</v>
+        <v>0.4383741786524524</v>
       </c>
       <c r="E25">
-        <v>0.4786830788613656</v>
+        <v>1.675137195600385</v>
       </c>
       <c r="F25">
-        <v>3.815268189410062</v>
+        <v>7.831556813924237</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5178445011083284</v>
+        <v>1.382233207331353</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.061113278934187</v>
+        <v>1.074426003889329</v>
       </c>
       <c r="C2">
-        <v>0.1618476210125976</v>
+        <v>0.1120998460893645</v>
       </c>
       <c r="D2">
-        <v>0.3785165108487689</v>
+        <v>0.08770266306402164</v>
       </c>
       <c r="E2">
-        <v>1.364225124840402</v>
+        <v>0.05363413351231294</v>
       </c>
       <c r="F2">
-        <v>6.646094868315743</v>
+        <v>0.859747481690988</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0.01299150729089896</v>
+      </c>
+      <c r="I2">
+        <v>0.01641322161442949</v>
+      </c>
+      <c r="J2">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
-        <v>1.126897302980836</v>
+        <v>0.5288966857627102</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.06073324523393708</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9635827557884795</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2099414461932838</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>2.229720969840187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9089676810157243</v>
+        <v>0.9362581088537354</v>
       </c>
       <c r="C3">
-        <v>0.1374039567740084</v>
+        <v>0.1030048607617431</v>
       </c>
       <c r="D3">
-        <v>0.3391782294703773</v>
+        <v>0.07804257237624768</v>
       </c>
       <c r="E3">
-        <v>1.163290722026062</v>
+        <v>0.04978667780643242</v>
       </c>
       <c r="F3">
-        <v>5.868307764395951</v>
+        <v>0.8415468483004958</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.01600236290066542</v>
+      </c>
+      <c r="I3">
+        <v>0.01963608360741098</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>0.9616681640517868</v>
+        <v>0.5302609706787074</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05799829016228486</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8401251158406637</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1863994599769114</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>2.21118350190244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8182031955495859</v>
+        <v>0.8512152730268667</v>
       </c>
       <c r="C4">
-        <v>0.1229058108587537</v>
+        <v>0.09746943640325156</v>
       </c>
       <c r="D4">
-        <v>0.3154707904038929</v>
+        <v>0.07213942883146274</v>
       </c>
       <c r="E4">
-        <v>1.043548532792869</v>
+        <v>0.04740981652916254</v>
       </c>
       <c r="F4">
-        <v>5.400462015807534</v>
+        <v>0.8308577972228761</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.01808408374644027</v>
+      </c>
+      <c r="I4">
+        <v>0.02187361334768401</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>0.8632198345383131</v>
+        <v>0.5313358163062212</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05627756229097969</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7643444455201802</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1720144082213579</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>2.201243405184357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7817888140667435</v>
+        <v>0.8162181351090112</v>
       </c>
       <c r="C5">
-        <v>0.1171048983232623</v>
+        <v>0.09541326380595194</v>
       </c>
       <c r="D5">
-        <v>0.3059011813462575</v>
+        <v>0.06978777038732176</v>
       </c>
       <c r="E5">
-        <v>0.9955134025281751</v>
+        <v>0.04641513345731596</v>
       </c>
       <c r="F5">
-        <v>5.211873398801004</v>
+        <v>0.825958692175945</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.01899474962293607</v>
+      </c>
+      <c r="I5">
+        <v>0.02294201535056128</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>0.8237457873690062</v>
+        <v>0.531353212080905</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05552204676705763</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7337731458032977</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1663282683198872</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>2.195649236423435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7757742719294356</v>
+        <v>0.8100536168795998</v>
       </c>
       <c r="C6">
-        <v>0.1161475650312269</v>
+        <v>0.0953049680767748</v>
       </c>
       <c r="D6">
-        <v>0.3043171030674756</v>
+        <v>0.06945572189926708</v>
       </c>
       <c r="E6">
-        <v>0.9875790475210664</v>
+        <v>0.04622253612262384</v>
       </c>
       <c r="F6">
-        <v>5.180672560283767</v>
+        <v>0.8243436615525042</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.0191561863962264</v>
+      </c>
+      <c r="I6">
+        <v>0.02324466435267425</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>0.8172270731180049</v>
+        <v>0.5307749643681632</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05534262869261219</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7290763984306068</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1655811572685693</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2.192426171597333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8177098960413787</v>
+        <v>0.8497843046419007</v>
       </c>
       <c r="C7">
-        <v>0.1228271697932684</v>
+        <v>0.09807827161039029</v>
       </c>
       <c r="D7">
-        <v>0.3153413874265993</v>
+        <v>0.07226647394153218</v>
       </c>
       <c r="E7">
-        <v>1.042897821886484</v>
+        <v>0.04732218316324932</v>
       </c>
       <c r="F7">
-        <v>5.397910768771709</v>
+        <v>0.8285862019406522</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.01811389950274905</v>
+      </c>
+      <c r="I7">
+        <v>0.02220215397353886</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>0.8626850016591732</v>
+        <v>0.5297427145757361</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05612198078611819</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7649716974393641</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1724743392737338</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2.194856038865609</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.00804246750414</v>
+        <v>1.025540908555143</v>
       </c>
       <c r="C8">
-        <v>0.1532999653169043</v>
+        <v>0.1098057845322344</v>
       </c>
       <c r="D8">
-        <v>0.3648467234183386</v>
+        <v>0.08457680492040964</v>
       </c>
       <c r="E8">
-        <v>1.294090916600751</v>
+        <v>0.05221232428360523</v>
       </c>
       <c r="F8">
-        <v>6.375653821646296</v>
+        <v>0.8504678978127274</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.01399953683258684</v>
+      </c>
+      <c r="I8">
+        <v>0.01784700974353282</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>1.069232251168444</v>
+        <v>0.5272291928721877</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.05960739143582039</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9223920460118222</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2025235563323946</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2.214737510872084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.407254150537597</v>
+        <v>1.370496413826032</v>
       </c>
       <c r="C9">
-        <v>0.2182187689987529</v>
+        <v>0.1321210701472921</v>
       </c>
       <c r="D9">
-        <v>0.4665467924766347</v>
+        <v>0.1086831146191116</v>
       </c>
       <c r="E9">
-        <v>1.823593975582071</v>
+        <v>0.06182988799441169</v>
       </c>
       <c r="F9">
-        <v>8.389849295154022</v>
+        <v>0.9013447015573917</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.007843277752342087</v>
+      </c>
+      <c r="I9">
+        <v>0.01097123996226923</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>1.503878640610509</v>
+        <v>0.5270662740727445</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06638212452293857</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.229689542622964</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2611202827513068</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2.276893534925307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.724496718037216</v>
+        <v>1.620794668334952</v>
       </c>
       <c r="C10">
-        <v>0.2709206617869029</v>
+        <v>0.1505004380420871</v>
       </c>
       <c r="D10">
-        <v>0.5458421192852541</v>
+        <v>0.1249890564568972</v>
       </c>
       <c r="E10">
-        <v>2.248795319963676</v>
+        <v>0.06658118874566199</v>
       </c>
       <c r="F10">
-        <v>9.960982682667748</v>
+        <v>0.9283459364036162</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.004967317420808914</v>
+      </c>
+      <c r="I10">
+        <v>0.007573012626248321</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>1.850830284566683</v>
+        <v>0.5212286128242418</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.06896154021053746</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.458659940707406</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2959412420940453</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>2.29901102296688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.876283917142217</v>
+        <v>1.714561056713535</v>
       </c>
       <c r="C11">
-        <v>0.2965127938317522</v>
+        <v>0.1719005325478093</v>
       </c>
       <c r="D11">
-        <v>0.5833943280080121</v>
+        <v>0.1182529237401724</v>
       </c>
       <c r="E11">
-        <v>2.454039209688318</v>
+        <v>0.05137808561153889</v>
       </c>
       <c r="F11">
-        <v>10.70446230129323</v>
+        <v>0.836533709848247</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02344516361441151</v>
+      </c>
+      <c r="I11">
+        <v>0.00730660963825791</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>2.017351129874669</v>
+        <v>0.4652699825004483</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.05658924950122746</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.582186184452183</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2387330435184651</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>2.062235182033248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.935072207115752</v>
+        <v>1.741942835406178</v>
       </c>
       <c r="C12">
-        <v>0.3064926010513744</v>
+        <v>0.186190087231239</v>
       </c>
       <c r="D12">
-        <v>0.5978771582938691</v>
+        <v>0.1090274280785621</v>
       </c>
       <c r="E12">
-        <v>2.533883755052912</v>
+        <v>0.04047088086417538</v>
       </c>
       <c r="F12">
-        <v>10.99105131126214</v>
+        <v>0.7602643878188147</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.06230706439558276</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.007175452129080995</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>2.081938910606993</v>
+        <v>0.424922988244699</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05289445157722827</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.637061896698555</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1880626732371411</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.876916706982371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.922348574867442</v>
+        <v>1.718010159667926</v>
       </c>
       <c r="C13">
-        <v>0.3043294099509382</v>
+        <v>0.1966846589939024</v>
       </c>
       <c r="D13">
-        <v>0.5947454438140198</v>
+        <v>0.09766320968658704</v>
       </c>
       <c r="E13">
-        <v>2.516585556743891</v>
+        <v>0.03213715572752562</v>
       </c>
       <c r="F13">
-        <v>10.92908818387286</v>
+        <v>0.6880221177595303</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1185203646639366</v>
+      </c>
+      <c r="I13">
+        <v>0.007550946966897953</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>2.067955635840605</v>
+        <v>0.3916200684323279</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.05529365776794215</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.643378439604732</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1406102364113764</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.710089586407037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.881092695068503</v>
+        <v>1.677762294468948</v>
       </c>
       <c r="C14">
-        <v>0.2973276896145762</v>
+        <v>0.2026323009166617</v>
       </c>
       <c r="D14">
-        <v>0.5845802560608888</v>
+        <v>0.08888566494759687</v>
       </c>
       <c r="E14">
-        <v>2.460562737142254</v>
+        <v>0.02787079778824886</v>
       </c>
       <c r="F14">
-        <v>10.72793308254177</v>
+        <v>0.6396127315969267</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1683113200727462</v>
+      </c>
+      <c r="I14">
+        <v>0.008153093312609272</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>2.022632328922583</v>
+        <v>0.3717112500896178</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06060173468555519</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.626109047723617</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1100464384410955</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.602290077194795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.856000649428267</v>
+        <v>1.656703323976956</v>
       </c>
       <c r="C15">
-        <v>0.2930783902406091</v>
+        <v>0.2034561591257358</v>
       </c>
       <c r="D15">
-        <v>0.5783896277796714</v>
+        <v>0.0863445478049556</v>
       </c>
       <c r="E15">
-        <v>2.426537886491303</v>
+        <v>0.02701381972337158</v>
       </c>
       <c r="F15">
-        <v>10.60540749703659</v>
+        <v>0.6276752194896247</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1810384815364756</v>
+      </c>
+      <c r="I15">
+        <v>0.008558037113976624</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>1.995079046335547</v>
+        <v>0.3675859902201744</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06227710399725339</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.611865473818966</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1027243850683703</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.577147628490295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.714746486095123</v>
+        <v>1.553420397763034</v>
       </c>
       <c r="C16">
-        <v>0.2692852286408396</v>
+        <v>0.1933894429617737</v>
       </c>
       <c r="D16">
-        <v>0.5434218232396688</v>
+        <v>0.08202043159093364</v>
       </c>
       <c r="E16">
-        <v>2.23565403234872</v>
+        <v>0.02684727025752931</v>
       </c>
       <c r="F16">
-        <v>9.913047494074419</v>
+        <v>0.6298853836733258</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1695138598983021</v>
+      </c>
+      <c r="I16">
+        <v>0.01004201476978483</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>1.840145317401351</v>
+        <v>0.375804731247797</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06049603632556355</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.511780792832752</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.09898052100987087</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.597704393654809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.630158654733521</v>
+        <v>1.495685751972701</v>
       </c>
       <c r="C17">
-        <v>0.2551394937298852</v>
+        <v>0.1825259862532107</v>
       </c>
       <c r="D17">
-        <v>0.522381902682838</v>
+        <v>0.08330944994391132</v>
       </c>
       <c r="E17">
-        <v>2.121852508562682</v>
+        <v>0.02869221179852754</v>
       </c>
       <c r="F17">
-        <v>9.496271199994681</v>
+        <v>0.6568765082104449</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1324524460051748</v>
+      </c>
+      <c r="I17">
+        <v>0.01090734846406072</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>1.74750666069491</v>
+        <v>0.3924025271572127</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05570441092930523</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.444479097066903</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1116207579492823</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.669845308822531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.582192759063219</v>
+        <v>1.471085670453277</v>
       </c>
       <c r="C18">
-        <v>0.2471515514364171</v>
+        <v>0.1694997282175734</v>
       </c>
       <c r="D18">
-        <v>0.5104161671949612</v>
+        <v>0.0895891631848329</v>
       </c>
       <c r="E18">
-        <v>2.05747898950878</v>
+        <v>0.0339170523898833</v>
       </c>
       <c r="F18">
-        <v>9.259196117627511</v>
+        <v>0.7117110818967163</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07979490313862669</v>
+      </c>
+      <c r="I18">
+        <v>0.01091280422055974</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>1.695021671001115</v>
+        <v>0.4207187193003357</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05116533830052195</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.396838042940828</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.142578421999346</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.803856314576635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.56606385479418</v>
+        <v>1.472804279121789</v>
       </c>
       <c r="C19">
-        <v>0.2444709248922265</v>
+        <v>0.157982613578028</v>
       </c>
       <c r="D19">
-        <v>0.5063867437162628</v>
+        <v>0.09996821618959473</v>
       </c>
       <c r="E19">
-        <v>2.035857662207377</v>
+        <v>0.04354956338065641</v>
       </c>
       <c r="F19">
-        <v>9.179355524807676</v>
+        <v>0.7851960688135549</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.03403828938991893</v>
+      </c>
+      <c r="I19">
+        <v>0.01078966433920403</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>1.677380621187211</v>
+        <v>0.4570561397043278</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.0522223051650399</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.370759549771151</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1915940022154246</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.977838612721357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.639090536585371</v>
+        <v>1.551909333293509</v>
       </c>
       <c r="C20">
-        <v>0.2566296136249662</v>
+        <v>0.1477962257463616</v>
       </c>
       <c r="D20">
-        <v>0.524607245443292</v>
+        <v>0.121127107815397</v>
       </c>
       <c r="E20">
-        <v>2.133852111501412</v>
+        <v>0.06501580937218776</v>
       </c>
       <c r="F20">
-        <v>9.540358074826116</v>
+        <v>0.9138567382542675</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.005650371614712046</v>
+      </c>
+      <c r="I20">
+        <v>0.009279089602552304</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>1.757283729718466</v>
+        <v>0.5176481942569318</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06777149489375489</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.401873479535766</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2880861055019608</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>2.272386646429538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.893172884389344</v>
+        <v>1.747724299306554</v>
       </c>
       <c r="C21">
-        <v>0.2993759241303877</v>
+        <v>0.1597084404219373</v>
       </c>
       <c r="D21">
-        <v>0.5875584455997398</v>
+        <v>0.1362031057269348</v>
       </c>
       <c r="E21">
-        <v>2.47695650616123</v>
+        <v>0.07214672839538849</v>
       </c>
       <c r="F21">
-        <v>10.78687200117008</v>
+        <v>0.9556439825549958</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.00337720194532054</v>
+      </c>
+      <c r="I21">
+        <v>0.006847788576714642</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>2.035900835753552</v>
+        <v>0.5243147237939141</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07311026748175564</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.574226817479229</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3285957915790476</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>2.340612331974967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.067011459230457</v>
+        <v>1.875955287515552</v>
       </c>
       <c r="C22">
-        <v>0.3290309747843452</v>
+        <v>0.1673735261199312</v>
       </c>
       <c r="D22">
-        <v>0.6302621076306707</v>
+        <v>0.145040591358395</v>
       </c>
       <c r="E22">
-        <v>2.71384447513401</v>
+        <v>0.07576579998650246</v>
       </c>
       <c r="F22">
-        <v>11.63153556898533</v>
+        <v>0.9802054709714696</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.002324014176406153</v>
+      </c>
+      <c r="I22">
+        <v>0.005243171345211906</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>2.227086490084105</v>
+        <v>0.5277459224816354</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07566703007614706</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.686759102785146</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3498922878783191</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.380300465945396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.973427528953835</v>
+        <v>1.808699398081671</v>
       </c>
       <c r="C23">
-        <v>0.3130244445217016</v>
+        <v>0.1624736944391714</v>
       </c>
       <c r="D23">
-        <v>0.6073083745790768</v>
+        <v>0.140128108377553</v>
       </c>
       <c r="E23">
-        <v>2.586088089562509</v>
+        <v>0.07392162915396838</v>
       </c>
       <c r="F23">
-        <v>11.1776271781676</v>
+        <v>0.9695738330182451</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.002853187336472107</v>
+      </c>
+      <c r="I23">
+        <v>0.00572983209028699</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>2.124106367345377</v>
+        <v>0.5276865052668853</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07447202895273008</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.625411522877243</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3378619963137339</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2.366141119036797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.63505037929275</v>
+        <v>1.552159717114762</v>
       </c>
       <c r="C24">
-        <v>0.2559554839949101</v>
+        <v>0.1453887937856138</v>
       </c>
       <c r="D24">
-        <v>0.5236007654562798</v>
+        <v>0.1219184421033503</v>
       </c>
       <c r="E24">
-        <v>2.128423843374705</v>
+        <v>0.06679607729777715</v>
       </c>
       <c r="F24">
-        <v>9.52041856882559</v>
+        <v>0.9266121324484899</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.005426869569323201</v>
+      </c>
+      <c r="I24">
+        <v>0.008703800511202786</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>1.752861125699241</v>
+        <v>0.5252401674762517</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06963349569010546</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.395597548974109</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2935796510209201</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>2.304982364885888</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.29571863967476</v>
+        <v>1.27551729432605</v>
       </c>
       <c r="C25">
-        <v>0.1999315240520474</v>
+        <v>0.1272120514381072</v>
       </c>
       <c r="D25">
-        <v>0.4383741786524524</v>
+        <v>0.1024210138252073</v>
       </c>
       <c r="E25">
-        <v>1.675137195600385</v>
+        <v>0.05910387868135558</v>
       </c>
       <c r="F25">
-        <v>7.831556813924237</v>
+        <v>0.8831893970492075</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.009308439676165667</v>
+      </c>
+      <c r="I25">
+        <v>0.01310522097459543</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>1.382233207331353</v>
+        <v>0.5240810140438512</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06432294374115699</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.148372008194144</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2461735357974391</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>2.247522866287795</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.074426003889329</v>
+        <v>1.059249325001986</v>
       </c>
       <c r="C2">
-        <v>0.1120998460893645</v>
+        <v>0.111228178853878</v>
       </c>
       <c r="D2">
-        <v>0.08770266306402164</v>
+        <v>0.09229600251043024</v>
       </c>
       <c r="E2">
-        <v>0.05363413351231294</v>
+        <v>0.05240361520568193</v>
       </c>
       <c r="F2">
-        <v>0.859747481690988</v>
+        <v>0.7892167064167879</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01299150729089896</v>
+        <v>0.01052857303735722</v>
       </c>
       <c r="I2">
-        <v>0.01641322161442949</v>
+        <v>0.01220576928569184</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>0.5288966857627102</v>
+        <v>0.4649693756587538</v>
       </c>
       <c r="L2">
-        <v>0.06073324523393708</v>
+        <v>0.1958035608923723</v>
       </c>
       <c r="M2">
-        <v>0.9635827557884795</v>
+        <v>0.1543526855402231</v>
       </c>
       <c r="N2">
-        <v>0.2099414461932838</v>
+        <v>0.05664780417172466</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9897963451854537</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2277053258469834</v>
       </c>
       <c r="Q2">
-        <v>2.229720969840187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>2.014040225253211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9362581088537354</v>
+        <v>0.9243417474113187</v>
       </c>
       <c r="C3">
-        <v>0.1030048607617431</v>
+        <v>0.0989660977296154</v>
       </c>
       <c r="D3">
-        <v>0.07804257237624768</v>
+        <v>0.08203573035648759</v>
       </c>
       <c r="E3">
-        <v>0.04978667780643242</v>
+        <v>0.0488301058298326</v>
       </c>
       <c r="F3">
-        <v>0.8415468483004958</v>
+        <v>0.776968574672793</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01600236290066542</v>
+        <v>0.01308943168187934</v>
       </c>
       <c r="I3">
-        <v>0.01963608360741098</v>
+        <v>0.01469386196614009</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>0.5302609706787074</v>
+        <v>0.4696111748653777</v>
       </c>
       <c r="L3">
-        <v>0.05799829016228486</v>
+        <v>0.2007221942175192</v>
       </c>
       <c r="M3">
-        <v>0.8401251158406637</v>
+        <v>0.1546074329243865</v>
       </c>
       <c r="N3">
-        <v>0.1863994599769114</v>
+        <v>0.05438087143628678</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8617613471224956</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2022517392701246</v>
       </c>
       <c r="Q3">
-        <v>2.21118350190244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>2.011134833529269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8512152730268667</v>
+        <v>0.841202671190814</v>
       </c>
       <c r="C4">
-        <v>0.09746943640325156</v>
+        <v>0.09156180640866296</v>
       </c>
       <c r="D4">
-        <v>0.07213942883146274</v>
+        <v>0.07577273361022208</v>
       </c>
       <c r="E4">
-        <v>0.04740981652916254</v>
+        <v>0.04661857923910517</v>
       </c>
       <c r="F4">
-        <v>0.8308577972228761</v>
+        <v>0.7698305814891526</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01808408374644027</v>
+        <v>0.01486671510450965</v>
       </c>
       <c r="I4">
-        <v>0.02187361334768401</v>
+        <v>0.01644125589213452</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>0.5313358163062212</v>
+        <v>0.4726301142255984</v>
       </c>
       <c r="L4">
-        <v>0.05627756229097969</v>
+        <v>0.2038049250877592</v>
       </c>
       <c r="M4">
-        <v>0.7643444455201802</v>
+        <v>0.1553403394805013</v>
       </c>
       <c r="N4">
-        <v>0.1720144082213579</v>
+        <v>0.05294597787250943</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.783198543622035</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1867288024082896</v>
       </c>
       <c r="Q4">
-        <v>2.201243405184357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>2.010506623889725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8162181351090112</v>
+        <v>0.806966428897141</v>
       </c>
       <c r="C5">
-        <v>0.09541326380595194</v>
+        <v>0.08878508655031681</v>
       </c>
       <c r="D5">
-        <v>0.06978777038732176</v>
+        <v>0.07327596578573292</v>
       </c>
       <c r="E5">
-        <v>0.04641513345731596</v>
+        <v>0.0456916166838468</v>
       </c>
       <c r="F5">
-        <v>0.825958692175945</v>
+        <v>0.7664018475657599</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.01899474962293607</v>
+        <v>0.01564581328391232</v>
       </c>
       <c r="I5">
-        <v>0.02294201535056128</v>
+        <v>0.01731152927234803</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>0.531353212080905</v>
+        <v>0.4734763907947119</v>
       </c>
       <c r="L5">
-        <v>0.05552204676705763</v>
+        <v>0.2048686796992314</v>
       </c>
       <c r="M5">
-        <v>0.7337731458032977</v>
+        <v>0.1556729795054412</v>
       </c>
       <c r="N5">
-        <v>0.1663282683198872</v>
+        <v>0.05231083029504369</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7514944390887592</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1805867735053965</v>
       </c>
       <c r="Q5">
-        <v>2.195649236423435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>2.008798930506089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8100536168795998</v>
+        <v>0.8009377484331139</v>
       </c>
       <c r="C6">
-        <v>0.0953049680767748</v>
+        <v>0.08858586359433929</v>
       </c>
       <c r="D6">
-        <v>0.06945572189926708</v>
+        <v>0.07291913133323646</v>
       </c>
       <c r="E6">
-        <v>0.04622253612262384</v>
+        <v>0.04551149058966608</v>
       </c>
       <c r="F6">
-        <v>0.8243436615525042</v>
+        <v>0.765089576118811</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0191561863962264</v>
+        <v>0.01578420744937484</v>
       </c>
       <c r="I6">
-        <v>0.02324466435267425</v>
+        <v>0.01759582046599917</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>0.5307749643681632</v>
+        <v>0.4731006505701245</v>
       </c>
       <c r="L6">
-        <v>0.05534262869261219</v>
+        <v>0.2047929816479126</v>
       </c>
       <c r="M6">
-        <v>0.7290763984306068</v>
+        <v>0.1556016006073335</v>
       </c>
       <c r="N6">
-        <v>0.1655811572685693</v>
+        <v>0.05215660624361362</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.746601694515391</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1797630216345922</v>
       </c>
       <c r="Q6">
-        <v>2.192426171597333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2.006416884809497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8497843046419007</v>
+        <v>0.839812569272425</v>
       </c>
       <c r="C7">
-        <v>0.09807827161039029</v>
+        <v>0.09224000233353991</v>
       </c>
       <c r="D7">
-        <v>0.07226647394153218</v>
+        <v>0.075895650819362</v>
       </c>
       <c r="E7">
-        <v>0.04732218316324932</v>
+        <v>0.04653539788625061</v>
       </c>
       <c r="F7">
-        <v>0.8285862019406522</v>
+        <v>0.7677472195256456</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.01811389950274905</v>
+        <v>0.014892703344562</v>
       </c>
       <c r="I7">
-        <v>0.02220215397353886</v>
+        <v>0.01680605733705409</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>0.5297427145757361</v>
+        <v>0.4712335316441383</v>
       </c>
       <c r="L7">
-        <v>0.05612198078611819</v>
+        <v>0.2031484230040306</v>
       </c>
       <c r="M7">
-        <v>0.7649716974393641</v>
+        <v>0.1549602196589177</v>
       </c>
       <c r="N7">
-        <v>0.1724743392737338</v>
+        <v>0.0528067740359468</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7837880567917921</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1871789821037098</v>
       </c>
       <c r="Q7">
-        <v>2.194856038865609</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>2.004732495209339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.025540908555143</v>
+        <v>1.011552849129771</v>
       </c>
       <c r="C8">
-        <v>0.1098057845322344</v>
+        <v>0.1079458590277511</v>
       </c>
       <c r="D8">
-        <v>0.08457680492040964</v>
+        <v>0.0889589213405273</v>
       </c>
       <c r="E8">
-        <v>0.05221232428360523</v>
+        <v>0.05108187538572295</v>
       </c>
       <c r="F8">
-        <v>0.8504678978127274</v>
+        <v>0.7822503148384357</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.01399953683258684</v>
+        <v>0.01138497643132426</v>
       </c>
       <c r="I8">
-        <v>0.01784700974353282</v>
+        <v>0.01344349987848226</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>0.5272291928721877</v>
+        <v>0.4647127520820398</v>
       </c>
       <c r="L8">
-        <v>0.05960739143582039</v>
+        <v>0.1966866655350579</v>
       </c>
       <c r="M8">
-        <v>0.9223920460118222</v>
+        <v>0.1537549887270568</v>
       </c>
       <c r="N8">
-        <v>0.2025235563323946</v>
+        <v>0.05570509326994966</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9469940714068912</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2196181499989791</v>
       </c>
       <c r="Q8">
-        <v>2.214737510872084</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2.005306806602192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.370496413826032</v>
+        <v>1.34775185533411</v>
       </c>
       <c r="C9">
-        <v>0.1321210701472921</v>
+        <v>0.1385196106498228</v>
       </c>
       <c r="D9">
-        <v>0.1086831146191116</v>
+        <v>0.1146123041483378</v>
       </c>
       <c r="E9">
-        <v>0.06182988799441169</v>
+        <v>0.05999425228118049</v>
       </c>
       <c r="F9">
-        <v>0.9013447015573917</v>
+        <v>0.8174876456383657</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.007843277752342087</v>
+        <v>0.006188201137935945</v>
       </c>
       <c r="I9">
-        <v>0.01097123996226923</v>
+        <v>0.008127039748115017</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.5270662740727445</v>
+        <v>0.4557756383480758</v>
       </c>
       <c r="L9">
-        <v>0.06638212452293857</v>
+        <v>0.1855701398379352</v>
       </c>
       <c r="M9">
-        <v>1.229689542622964</v>
+        <v>0.1567827119288836</v>
       </c>
       <c r="N9">
-        <v>0.2611202827513068</v>
+        <v>0.06128605230250272</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.265869328116935</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2831881349748926</v>
       </c>
       <c r="Q9">
-        <v>2.276893534925307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>2.026186838174681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.620794668334952</v>
+        <v>1.591579860644487</v>
       </c>
       <c r="C10">
-        <v>0.1505004380420871</v>
+        <v>0.1633217481851261</v>
       </c>
       <c r="D10">
-        <v>0.1249890564568972</v>
+        <v>0.131963684933325</v>
       </c>
       <c r="E10">
-        <v>0.06658118874566199</v>
+        <v>0.06430432800262764</v>
       </c>
       <c r="F10">
-        <v>0.9283459364036162</v>
+        <v>0.8343657494703365</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.004967317420808914</v>
+        <v>0.003837040085761689</v>
       </c>
       <c r="I10">
-        <v>0.007573012626248321</v>
+        <v>0.005661035502042111</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.5212286128242418</v>
+        <v>0.4447313760653913</v>
       </c>
       <c r="L10">
-        <v>0.06896154021053746</v>
+        <v>0.175817474202514</v>
       </c>
       <c r="M10">
-        <v>1.458659940707406</v>
+        <v>0.1596935991281505</v>
       </c>
       <c r="N10">
-        <v>0.2959412420940453</v>
+        <v>0.06330683189494302</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.502899863642085</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3212060406347206</v>
       </c>
       <c r="Q10">
-        <v>2.29901102296688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>2.022105495990274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.714561056713535</v>
+        <v>1.686834279055802</v>
       </c>
       <c r="C11">
-        <v>0.1719005325478093</v>
+        <v>0.1865830794053664</v>
       </c>
       <c r="D11">
-        <v>0.1182529237401724</v>
+        <v>0.1245974575777353</v>
       </c>
       <c r="E11">
-        <v>0.05137808561153889</v>
+        <v>0.04966552772231125</v>
       </c>
       <c r="F11">
-        <v>0.836533709848247</v>
+        <v>0.7533710907794315</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02344516361441151</v>
+        <v>0.02235853806147148</v>
       </c>
       <c r="I11">
-        <v>0.00730660963825791</v>
+        <v>0.005714212716265266</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.4652699825004483</v>
+        <v>0.3989156002268892</v>
       </c>
       <c r="L11">
-        <v>0.05658924950122746</v>
+        <v>0.1576700836558693</v>
       </c>
       <c r="M11">
-        <v>1.582186184452183</v>
+        <v>0.1445935541428547</v>
       </c>
       <c r="N11">
-        <v>0.2387330435184651</v>
+        <v>0.0532843641740941</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.625457945892862</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2602090227028384</v>
       </c>
       <c r="Q11">
-        <v>2.062235182033248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.818337528486197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.741942835406178</v>
+        <v>1.716951334788092</v>
       </c>
       <c r="C12">
-        <v>0.186190087231239</v>
+        <v>0.2004682782911118</v>
       </c>
       <c r="D12">
-        <v>0.1090274280785621</v>
+        <v>0.1146449803205769</v>
       </c>
       <c r="E12">
-        <v>0.04047088086417538</v>
+        <v>0.03925909574651776</v>
       </c>
       <c r="F12">
-        <v>0.7602643878188147</v>
+        <v>0.6874367521752234</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06230706439558276</v>
+        <v>0.06119790029650574</v>
       </c>
       <c r="I12">
-        <v>0.007175452129080995</v>
+        <v>0.005612032522424037</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.424922988244699</v>
+        <v>0.367181473778782</v>
       </c>
       <c r="L12">
-        <v>0.05289445157722827</v>
+        <v>0.1464515031332674</v>
       </c>
       <c r="M12">
-        <v>1.637061896698555</v>
+        <v>0.132483328149025</v>
       </c>
       <c r="N12">
-        <v>0.1880626732371411</v>
+        <v>0.05137012191582802</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.677626186468927</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2059563363767296</v>
       </c>
       <c r="Q12">
-        <v>1.876916706982371</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.663400399727095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.718010159667926</v>
+        <v>1.696922053469024</v>
       </c>
       <c r="C13">
-        <v>0.1966846589939024</v>
+        <v>0.208916663163393</v>
       </c>
       <c r="D13">
-        <v>0.09766320968658704</v>
+        <v>0.1024462492366638</v>
       </c>
       <c r="E13">
-        <v>0.03213715572752562</v>
+        <v>0.03139203563968263</v>
       </c>
       <c r="F13">
-        <v>0.6880221177595303</v>
+        <v>0.6259079828813867</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1185203646639366</v>
+        <v>0.1173284684658711</v>
       </c>
       <c r="I13">
-        <v>0.007550946966897953</v>
+        <v>0.005866670526405215</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>0.3916200684323279</v>
+        <v>0.3420325981474583</v>
       </c>
       <c r="L13">
-        <v>0.05529365776794215</v>
+        <v>0.1384448406559198</v>
       </c>
       <c r="M13">
-        <v>1.643378439604732</v>
+        <v>0.1214767590954171</v>
       </c>
       <c r="N13">
-        <v>0.1406102364113764</v>
+        <v>0.05516841087419344</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.679721066896178</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1549553770404017</v>
       </c>
       <c r="Q13">
-        <v>1.710089586407037</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.527308823408674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.677762294468948</v>
+        <v>1.659921905594587</v>
       </c>
       <c r="C14">
-        <v>0.2026323009166617</v>
+        <v>0.2126550998096803</v>
       </c>
       <c r="D14">
-        <v>0.08888566494759687</v>
+        <v>0.09304888669348088</v>
       </c>
       <c r="E14">
-        <v>0.02787079778824886</v>
+        <v>0.02741769265585736</v>
       </c>
       <c r="F14">
-        <v>0.6396127315969267</v>
+        <v>0.584987699990009</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1683113200727462</v>
+        <v>0.1670337175433332</v>
       </c>
       <c r="I14">
-        <v>0.008153093312609272</v>
+        <v>0.006327652598947076</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.3717112500896178</v>
+        <v>0.3274680128770768</v>
       </c>
       <c r="L14">
-        <v>0.06060173468555519</v>
+        <v>0.1340911425501154</v>
       </c>
       <c r="M14">
-        <v>1.626109047723617</v>
+        <v>0.1145275573633562</v>
       </c>
       <c r="N14">
-        <v>0.1100464384410955</v>
+        <v>0.06120786018945878</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.658801293436028</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.122021492427038</v>
       </c>
       <c r="Q14">
-        <v>1.602290077194795</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.440673500356326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.656703323976956</v>
+        <v>1.639885811733052</v>
       </c>
       <c r="C15">
-        <v>0.2034561591257358</v>
+        <v>0.2126673101292056</v>
       </c>
       <c r="D15">
-        <v>0.0863445478049556</v>
+        <v>0.09033262734408964</v>
       </c>
       <c r="E15">
-        <v>0.02701381972337158</v>
+        <v>0.02663024451962626</v>
       </c>
       <c r="F15">
-        <v>0.6276752194896247</v>
+        <v>0.5750509457757289</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1810384815364756</v>
+        <v>0.1797196272870849</v>
       </c>
       <c r="I15">
-        <v>0.008558037113976624</v>
+        <v>0.00668330486116453</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.3675859902201744</v>
+        <v>0.324662575499433</v>
       </c>
       <c r="L15">
-        <v>0.06227710399725339</v>
+        <v>0.1333494834175113</v>
       </c>
       <c r="M15">
-        <v>1.611865473818966</v>
+        <v>0.1129505387836964</v>
       </c>
       <c r="N15">
-        <v>0.1027243850683703</v>
+        <v>0.06300954231143407</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.64337019973911</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1141067059018113</v>
       </c>
       <c r="Q15">
-        <v>1.577147628490295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.421085095572863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.553420397763034</v>
+        <v>1.538555391893851</v>
       </c>
       <c r="C16">
-        <v>0.1933894429617737</v>
+        <v>0.2001600146604261</v>
       </c>
       <c r="D16">
-        <v>0.08202043159093364</v>
+        <v>0.0857661455727623</v>
       </c>
       <c r="E16">
-        <v>0.02684727025752931</v>
+        <v>0.02649847237406089</v>
       </c>
       <c r="F16">
-        <v>0.6298853836733258</v>
+        <v>0.5789474786952908</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1695138598983021</v>
+        <v>0.1679763340138862</v>
       </c>
       <c r="I16">
-        <v>0.01004201476978483</v>
+        <v>0.007833805691654483</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.375804731247797</v>
+        <v>0.3330693661645032</v>
       </c>
       <c r="L16">
-        <v>0.06049603632556355</v>
+        <v>0.1369494625676531</v>
       </c>
       <c r="M16">
-        <v>1.511780792832752</v>
+        <v>0.1146049064379433</v>
       </c>
       <c r="N16">
-        <v>0.09898052100987087</v>
+        <v>0.06096609714124668</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.540729801034985</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1099629989295963</v>
       </c>
       <c r="Q16">
-        <v>1.597704393654809</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.445339639176524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.495685751972701</v>
+        <v>1.480590617193457</v>
       </c>
       <c r="C17">
-        <v>0.1825259862532107</v>
+        <v>0.1886781371387798</v>
       </c>
       <c r="D17">
-        <v>0.08330944994391132</v>
+        <v>0.08718784208807051</v>
       </c>
       <c r="E17">
-        <v>0.02869221179852754</v>
+        <v>0.02823484560206246</v>
       </c>
       <c r="F17">
-        <v>0.6568765082104449</v>
+        <v>0.6034487405566651</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1324524460051748</v>
+        <v>0.1307890582103255</v>
       </c>
       <c r="I17">
-        <v>0.01090734846406072</v>
+        <v>0.008517043089187659</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234428</v>
       </c>
       <c r="K17">
-        <v>0.3924025271572127</v>
+        <v>0.3471570935476951</v>
       </c>
       <c r="L17">
-        <v>0.05570441092930523</v>
+        <v>0.1423521957096252</v>
       </c>
       <c r="M17">
-        <v>1.444479097066903</v>
+        <v>0.1192656688909981</v>
       </c>
       <c r="N17">
-        <v>0.1116207579492823</v>
+        <v>0.05566380329686638</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.473414959192155</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1234707801262758</v>
       </c>
       <c r="Q17">
-        <v>1.669845308822531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.509644254709016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.471085670453277</v>
+        <v>1.453908504036264</v>
       </c>
       <c r="C18">
-        <v>0.1694997282175734</v>
+        <v>0.1762635588142558</v>
       </c>
       <c r="D18">
-        <v>0.0895891631848329</v>
+        <v>0.09395484814483268</v>
       </c>
       <c r="E18">
-        <v>0.0339170523898833</v>
+        <v>0.03318113425551861</v>
       </c>
       <c r="F18">
-        <v>0.7117110818967163</v>
+        <v>0.6514579937665701</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07979490313862669</v>
+        <v>0.0781030302555763</v>
       </c>
       <c r="I18">
-        <v>0.01091280422055974</v>
+        <v>0.008421404622225737</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.0759585914630927</v>
       </c>
       <c r="K18">
-        <v>0.4207187193003357</v>
+        <v>0.3698616487455446</v>
       </c>
       <c r="L18">
-        <v>0.05116533830052195</v>
+        <v>0.1508797382782152</v>
       </c>
       <c r="M18">
-        <v>1.396838042940828</v>
+        <v>0.1275393266761036</v>
       </c>
       <c r="N18">
-        <v>0.142578421999346</v>
+        <v>0.05018509744485478</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.427884057727937</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1566451596769625</v>
       </c>
       <c r="Q18">
-        <v>1.803856314576635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.623550723212745</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.472804279121789</v>
+        <v>1.452320047050137</v>
       </c>
       <c r="C19">
-        <v>0.157982613578028</v>
+        <v>0.1661339963775674</v>
       </c>
       <c r="D19">
-        <v>0.09996821618959473</v>
+        <v>0.1051017090745887</v>
       </c>
       <c r="E19">
-        <v>0.04354956338065641</v>
+        <v>0.0423631130415778</v>
       </c>
       <c r="F19">
-        <v>0.7851960688135549</v>
+        <v>0.7147407536505241</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03403828938991893</v>
+        <v>0.03242630426755966</v>
       </c>
       <c r="I19">
-        <v>0.01078966433920403</v>
+        <v>0.008388110909548274</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>0.4570561397043278</v>
+        <v>0.3981421052976586</v>
       </c>
       <c r="L19">
-        <v>0.0522223051650399</v>
+        <v>0.1613952988806311</v>
       </c>
       <c r="M19">
-        <v>1.370759549771151</v>
+        <v>0.138186500015383</v>
       </c>
       <c r="N19">
-        <v>0.1915940022154246</v>
+        <v>0.04978260416910252</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.40532238672526</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2091050955089742</v>
       </c>
       <c r="Q19">
-        <v>1.977838612721357</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.767937838627489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.551909333293509</v>
+        <v>1.524572327162304</v>
       </c>
       <c r="C20">
-        <v>0.1477962257463616</v>
+        <v>0.1592406295072522</v>
       </c>
       <c r="D20">
-        <v>0.121127107815397</v>
+        <v>0.127815416385701</v>
       </c>
       <c r="E20">
-        <v>0.06501580937218776</v>
+        <v>0.06287204021899129</v>
       </c>
       <c r="F20">
-        <v>0.9138567382542675</v>
+        <v>0.823271627419409</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.005650371614712046</v>
+        <v>0.004387718087974779</v>
       </c>
       <c r="I20">
-        <v>0.009279089602552304</v>
+        <v>0.007285046059206657</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835614</v>
       </c>
       <c r="K20">
-        <v>0.5176481942569318</v>
+        <v>0.4433142061789077</v>
       </c>
       <c r="L20">
-        <v>0.06777149489375489</v>
+        <v>0.1767949931904553</v>
       </c>
       <c r="M20">
-        <v>1.401873479535766</v>
+        <v>0.1571069516961039</v>
       </c>
       <c r="N20">
-        <v>0.2880861055019608</v>
+        <v>0.06233234579088531</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.443915038692609</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3124796659289757</v>
       </c>
       <c r="Q20">
-        <v>2.272386646429538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>2.004791727731316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.747724299306554</v>
+        <v>1.714426388826553</v>
       </c>
       <c r="C21">
-        <v>0.1597084404219373</v>
+        <v>0.1763591980268018</v>
       </c>
       <c r="D21">
-        <v>0.1362031057269348</v>
+        <v>0.1439067476406706</v>
       </c>
       <c r="E21">
-        <v>0.07214672839538849</v>
+        <v>0.06951486017121766</v>
       </c>
       <c r="F21">
-        <v>0.9556439825549958</v>
+        <v>0.8542271537153354</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.00337720194532054</v>
+        <v>0.002500617067810795</v>
       </c>
       <c r="I21">
-        <v>0.006847788576714642</v>
+        <v>0.005493627876960616</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.5243147237939141</v>
+        <v>0.443501260698465</v>
       </c>
       <c r="L21">
-        <v>0.07311026748175564</v>
+        <v>0.1725128045493101</v>
       </c>
       <c r="M21">
-        <v>1.574226817479229</v>
+        <v>0.1634241467754265</v>
       </c>
       <c r="N21">
-        <v>0.3285957915790476</v>
+        <v>0.06674334163149176</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.623273701023749</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3564687223821466</v>
       </c>
       <c r="Q21">
-        <v>2.340612331974967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>2.043986298223103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.875955287515552</v>
+        <v>1.838841553901517</v>
       </c>
       <c r="C22">
-        <v>0.1673735261199312</v>
+        <v>0.1872931291002971</v>
       </c>
       <c r="D22">
-        <v>0.145040591358395</v>
+        <v>0.1533502368260145</v>
       </c>
       <c r="E22">
-        <v>0.07576579998650246</v>
+        <v>0.07285117714441824</v>
       </c>
       <c r="F22">
-        <v>0.9802054709714696</v>
+        <v>0.8722310323390516</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.002324014176406153</v>
+        <v>0.001655393821052287</v>
       </c>
       <c r="I22">
-        <v>0.005243171345211906</v>
+        <v>0.00418792760918052</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.5277459224816354</v>
+        <v>0.4430491313652318</v>
       </c>
       <c r="L22">
-        <v>0.07566703007614706</v>
+        <v>0.1694370551923683</v>
       </c>
       <c r="M22">
-        <v>1.686759102785146</v>
+        <v>0.1678458251456085</v>
       </c>
       <c r="N22">
-        <v>0.3498922878783191</v>
+        <v>0.0688241757397563</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.740145279933699</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3797499712880636</v>
       </c>
       <c r="Q22">
-        <v>2.380300465945396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>2.06610969710772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.808699398081671</v>
+        <v>1.773586334872334</v>
       </c>
       <c r="C23">
-        <v>0.1624736944391714</v>
+        <v>0.1805004441805949</v>
       </c>
       <c r="D23">
-        <v>0.140128108377553</v>
+        <v>0.1481152634596867</v>
       </c>
       <c r="E23">
-        <v>0.07392162915396838</v>
+        <v>0.0711530397370872</v>
       </c>
       <c r="F23">
-        <v>0.9695738330182451</v>
+        <v>0.8648586078158758</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.002853187336472107</v>
+        <v>0.002077952138560435</v>
       </c>
       <c r="I23">
-        <v>0.00572983209028699</v>
+        <v>0.004460693619630085</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.5276865052668853</v>
+        <v>0.4447822948497837</v>
       </c>
       <c r="L23">
-        <v>0.07447202895273008</v>
+        <v>0.1715780252472427</v>
       </c>
       <c r="M23">
-        <v>1.625411522877243</v>
+        <v>0.1660658542052609</v>
       </c>
       <c r="N23">
-        <v>0.3378619963137339</v>
+        <v>0.06785976722041553</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.676502844523242</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3666558687605885</v>
       </c>
       <c r="Q23">
-        <v>2.366141119036797</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>2.060504946709273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.552159717114762</v>
+        <v>1.524450730098039</v>
       </c>
       <c r="C24">
-        <v>0.1453887937856138</v>
+        <v>0.1566463533727784</v>
       </c>
       <c r="D24">
-        <v>0.1219184421033503</v>
+        <v>0.128695065257773</v>
       </c>
       <c r="E24">
-        <v>0.06679607729777715</v>
+        <v>0.06458086511111105</v>
       </c>
       <c r="F24">
-        <v>0.9266121324484899</v>
+        <v>0.8344183381836245</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.005426869569323201</v>
+        <v>0.004178688478695181</v>
       </c>
       <c r="I24">
-        <v>0.008703800511202786</v>
+        <v>0.006619828347343315</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555361169</v>
       </c>
       <c r="K24">
-        <v>0.5252401674762517</v>
+        <v>0.4494446446766567</v>
       </c>
       <c r="L24">
-        <v>0.06963349569010546</v>
+        <v>0.1790799283794193</v>
       </c>
       <c r="M24">
-        <v>1.395597548974109</v>
+        <v>0.1594038533046387</v>
       </c>
       <c r="N24">
-        <v>0.2935796510209201</v>
+        <v>0.06392813539823194</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.437965860236574</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.31841063303564</v>
       </c>
       <c r="Q24">
-        <v>2.304982364885888</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>2.032495171782415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.27551729432605</v>
+        <v>1.255300638248684</v>
       </c>
       <c r="C25">
-        <v>0.1272120514381072</v>
+        <v>0.1314923853562533</v>
       </c>
       <c r="D25">
-        <v>0.1024210138252073</v>
+        <v>0.1079217464798319</v>
       </c>
       <c r="E25">
-        <v>0.05910387868135558</v>
+        <v>0.05746921003899352</v>
       </c>
       <c r="F25">
-        <v>0.8831893970492075</v>
+        <v>0.8040077033380655</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.009308439676165667</v>
+        <v>0.007417469123856074</v>
       </c>
       <c r="I25">
-        <v>0.01310522097459543</v>
+        <v>0.009952763000226739</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.5240810140438512</v>
+        <v>0.4556204226560148</v>
       </c>
       <c r="L25">
-        <v>0.06432294374115699</v>
+        <v>0.1875690694491183</v>
       </c>
       <c r="M25">
-        <v>1.148372008194144</v>
+        <v>0.1546082002581102</v>
       </c>
       <c r="N25">
-        <v>0.2461735357974391</v>
+        <v>0.0595835649828178</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.181367759559549</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2668648369472493</v>
       </c>
       <c r="Q25">
-        <v>2.247522866287795</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>2.009419234395949</v>
       </c>
     </row>
   </sheetData>
